--- a/Utility/xlsFiles/두근두근! 드디어!! 대모험 시작!!!.xlsx
+++ b/Utility/xlsFiles/두근두근! 드디어!! 대모험 시작!!!.xlsx
@@ -3,16 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F967D0-2FD5-42E9-A13A-17D6CC2A20B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A66660E-CF9D-439D-AC34-2F0E37F7B1CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Easy" sheetId="1" r:id="rId1"/>
     <sheet name="Normal" sheetId="2" r:id="rId2"/>
     <sheet name="Hard" sheetId="3" r:id="rId3"/>
+    <sheet name="Xtreme" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="74">
   <si>
     <t>a</t>
   </si>
@@ -102,12 +103,216 @@
     <t>timestamp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clarinets #2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PULS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mortal Kombat 3 GOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mortal Kombat 3 GOL #2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2개 동시에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mortal Kombat 3 GOL #2 Phase 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mallets FG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>convertedTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mallets FG Phase 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mortal Kombat 3 GOL #3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cymbals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Metal Chords</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,12 +326,6 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFD4D4D4"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -149,10 +348,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -436,7 +638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
@@ -531,23 +733,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E07BD68-F4D3-493E-B579-B52A0BB22360}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:D256"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView topLeftCell="A159" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B174" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
       <c r="B1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -555,7 +760,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -563,7 +768,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -571,7 +776,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -579,7 +784,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -587,7 +792,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -595,7 +800,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -603,7 +808,7 @@
         <v>6900</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -611,7 +816,7 @@
         <v>7350</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -619,7 +824,7 @@
         <v>8100</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -627,7 +832,7 @@
         <v>8400</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -635,7 +840,7 @@
         <v>8700</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -643,7 +848,7 @@
         <v>9300</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -651,7 +856,7 @@
         <v>9750</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -659,7 +864,7 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -739,131 +944,8761 @@
         <v>15600</v>
       </c>
     </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>15900</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>16950</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>17700</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>18300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>18900</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>19350</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>20100</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>20400</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>20700</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>21300</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>21750</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>22800</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>23100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>23700</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>24150</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>25050</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>25200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>25350</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>25500</v>
+      </c>
+      <c r="D47" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>25950</v>
+      </c>
+      <c r="D48" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>26400</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>26700</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>27150</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>27600</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53">
+        <v>27900</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54">
+        <v>28500</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55">
+        <v>29100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56">
+        <v>29700</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>30300</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>30900</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>31200</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>31500</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>31950</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>32400</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>32700</v>
+      </c>
+      <c r="D63" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>33300</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>33900</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>34500</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>35100</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>35700</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <v>36300</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>36750</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>37200</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>37500</v>
+      </c>
+      <c r="D73" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>38100</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B75">
+        <v>38700</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <v>39300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B77">
+        <v>39900</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B78">
+        <v>40500</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B79">
+        <v>40800</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B80">
+        <v>41100</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B81">
+        <v>41550</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B82">
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B83">
+        <v>42300</v>
+      </c>
+      <c r="D83" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B84">
+        <v>42600</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B85">
+        <f>B84+300</f>
+        <v>42900</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B86">
+        <f t="shared" ref="B86:B93" si="0">B85+300</f>
+        <v>43200</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B87">
+        <f t="shared" si="0"/>
+        <v>43500</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B88">
+        <f t="shared" si="0"/>
+        <v>43800</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B89">
+        <f t="shared" si="0"/>
+        <v>44100</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B90">
+        <f t="shared" si="0"/>
+        <v>44400</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B91">
+        <f>19200+B47</f>
+        <v>44700</v>
+      </c>
+      <c r="D91" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B92">
+        <f t="shared" ref="B92:B143" si="1">19200+B48</f>
+        <v>45150</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B93">
+        <f t="shared" si="1"/>
+        <v>45600</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B94">
+        <f t="shared" si="1"/>
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B95">
+        <f t="shared" si="1"/>
+        <v>46350</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B96">
+        <f t="shared" si="1"/>
+        <v>46800</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B97">
+        <f t="shared" si="1"/>
+        <v>47100</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B98">
+        <f t="shared" si="1"/>
+        <v>47700</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B99">
+        <f t="shared" si="1"/>
+        <v>48300</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B100">
+        <f t="shared" si="1"/>
+        <v>48900</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B101">
+        <f t="shared" si="1"/>
+        <v>49500</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B102">
+        <f t="shared" si="1"/>
+        <v>50100</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B103">
+        <f t="shared" si="1"/>
+        <v>50400</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B104">
+        <f t="shared" si="1"/>
+        <v>50700</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B105">
+        <f t="shared" si="1"/>
+        <v>51150</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B106">
+        <f t="shared" si="1"/>
+        <v>51600</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B107">
+        <f t="shared" si="1"/>
+        <v>51900</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B108">
+        <f t="shared" si="1"/>
+        <v>52500</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B109">
+        <f t="shared" si="1"/>
+        <v>53100</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B110">
+        <f t="shared" si="1"/>
+        <v>53700</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B111">
+        <f t="shared" si="1"/>
+        <v>54300</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B112">
+        <f t="shared" si="1"/>
+        <v>54900</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B113">
+        <f t="shared" si="1"/>
+        <v>55200</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B114">
+        <f t="shared" si="1"/>
+        <v>55500</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B115">
+        <f t="shared" si="1"/>
+        <v>55950</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B116">
+        <f t="shared" si="1"/>
+        <v>56400</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B117">
+        <f t="shared" si="1"/>
+        <v>56700</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B118">
+        <f t="shared" si="1"/>
+        <v>57300</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B119">
+        <f t="shared" si="1"/>
+        <v>57900</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B120">
+        <f t="shared" si="1"/>
+        <v>58500</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B121">
+        <f t="shared" si="1"/>
+        <v>59100</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B122">
+        <f t="shared" si="1"/>
+        <v>59700</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B123">
+        <f t="shared" si="1"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B124">
+        <f t="shared" si="1"/>
+        <v>60300</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B125">
+        <f t="shared" si="1"/>
+        <v>60750</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B126">
+        <f t="shared" si="1"/>
+        <v>61200</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B127">
+        <f t="shared" si="1"/>
+        <v>61500</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B128">
+        <f t="shared" si="1"/>
+        <v>61800</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B129">
+        <f t="shared" si="1"/>
+        <v>62100</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B130">
+        <f t="shared" si="1"/>
+        <v>62400</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B131">
+        <f t="shared" si="1"/>
+        <v>62700</v>
+      </c>
+      <c r="D131" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B132">
+        <f t="shared" si="1"/>
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B133">
+        <f t="shared" si="1"/>
+        <v>63300</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B134">
+        <f t="shared" si="1"/>
+        <v>63600</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B135">
+        <f t="shared" si="1"/>
+        <v>63900</v>
+      </c>
+      <c r="D135" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B136">
+        <f>B135+300</f>
+        <v>64200</v>
+      </c>
+      <c r="D136" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B137">
+        <f t="shared" ref="B137:B162" si="2">B136+300</f>
+        <v>64500</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B138">
+        <f t="shared" si="2"/>
+        <v>64800</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B139">
+        <f t="shared" si="2"/>
+        <v>65100</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B140">
+        <f t="shared" si="2"/>
+        <v>65400</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B141">
+        <f t="shared" si="2"/>
+        <v>65700</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B142">
+        <f t="shared" si="2"/>
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B143">
+        <f t="shared" si="2"/>
+        <v>66300</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B144">
+        <f t="shared" si="2"/>
+        <v>66600</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B145">
+        <f t="shared" si="2"/>
+        <v>66900</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B146">
+        <f t="shared" si="2"/>
+        <v>67200</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B147">
+        <f t="shared" si="2"/>
+        <v>67500</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B148">
+        <f t="shared" si="2"/>
+        <v>67800</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B149">
+        <f t="shared" si="2"/>
+        <v>68100</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B150">
+        <f t="shared" si="2"/>
+        <v>68400</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>1</v>
+      </c>
+      <c r="B151">
+        <f t="shared" si="2"/>
+        <v>68700</v>
+      </c>
+      <c r="D151" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>0</v>
+      </c>
+      <c r="B152">
+        <v>68701</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>2</v>
+      </c>
+      <c r="B153">
+        <f>B151+300</f>
+        <v>69000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>9</v>
+      </c>
+      <c r="B154">
+        <f>B152+300</f>
+        <v>69001</v>
+      </c>
+      <c r="D154" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>3</v>
+      </c>
+      <c r="B155">
+        <f>B153+300</f>
+        <v>69300</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>8</v>
+      </c>
+      <c r="B156">
+        <f>B154+300</f>
+        <v>69301</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>25</v>
+      </c>
+      <c r="B157">
+        <v>69900</v>
+      </c>
+      <c r="D157" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>37</v>
+      </c>
+      <c r="B158">
+        <v>69901</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>38</v>
+      </c>
+      <c r="B159">
+        <f>B157+300</f>
+        <v>70200</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>34</v>
+      </c>
+      <c r="B160">
+        <f t="shared" ref="B160:B162" si="3">B158+300</f>
+        <v>70201</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>39</v>
+      </c>
+      <c r="B161">
+        <f t="shared" si="3"/>
+        <v>70500</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>40</v>
+      </c>
+      <c r="B162">
+        <f t="shared" si="3"/>
+        <v>70501</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B163">
+        <v>71100</v>
+      </c>
+      <c r="D163" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B164">
+        <v>71400</v>
+      </c>
+      <c r="D164" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B165">
+        <v>71700</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B166">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B167">
+        <f>9600+B135</f>
+        <v>73500</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B168">
+        <f t="shared" ref="B168:B231" si="4">9600+B136</f>
+        <v>73800</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B169">
+        <f t="shared" si="4"/>
+        <v>74100</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B170">
+        <f t="shared" si="4"/>
+        <v>74400</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B171">
+        <f t="shared" si="4"/>
+        <v>74700</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B172">
+        <f t="shared" si="4"/>
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B173">
+        <f t="shared" si="4"/>
+        <v>75300</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B174">
+        <f t="shared" si="4"/>
+        <v>75600</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B175">
+        <f t="shared" si="4"/>
+        <v>75900</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B176">
+        <f t="shared" si="4"/>
+        <v>76200</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B177">
+        <f t="shared" si="4"/>
+        <v>76500</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B178">
+        <f t="shared" si="4"/>
+        <v>76800</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B179">
+        <f t="shared" si="4"/>
+        <v>77100</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B180">
+        <f t="shared" si="4"/>
+        <v>77400</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B181">
+        <f t="shared" si="4"/>
+        <v>77700</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B182">
+        <f t="shared" si="4"/>
+        <v>78000</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B183">
+        <f t="shared" si="4"/>
+        <v>78300</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B184">
+        <f t="shared" si="4"/>
+        <v>78301</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B185">
+        <f t="shared" si="4"/>
+        <v>78600</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B186">
+        <f t="shared" si="4"/>
+        <v>78601</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B187">
+        <f t="shared" si="4"/>
+        <v>78900</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B188">
+        <f t="shared" si="4"/>
+        <v>78901</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B189">
+        <f t="shared" si="4"/>
+        <v>79500</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B190">
+        <f t="shared" si="4"/>
+        <v>79501</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B191">
+        <f t="shared" si="4"/>
+        <v>79800</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B192">
+        <f t="shared" si="4"/>
+        <v>79801</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B193">
+        <f t="shared" si="4"/>
+        <v>80100</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B194">
+        <f t="shared" si="4"/>
+        <v>80101</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B195">
+        <f t="shared" si="4"/>
+        <v>80700</v>
+      </c>
+    </row>
+    <row r="196" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B196">
+        <f t="shared" si="4"/>
+        <v>81000</v>
+      </c>
+    </row>
+    <row r="197" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B197">
+        <f t="shared" si="4"/>
+        <v>81300</v>
+      </c>
+      <c r="D197" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="198" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B198">
+        <f t="shared" si="4"/>
+        <v>81600</v>
+      </c>
+    </row>
+    <row r="199" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B199">
+        <f t="shared" si="4"/>
+        <v>83100</v>
+      </c>
+    </row>
+    <row r="200" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B200">
+        <f t="shared" si="4"/>
+        <v>83400</v>
+      </c>
+    </row>
+    <row r="201" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B201">
+        <f t="shared" si="4"/>
+        <v>83700</v>
+      </c>
+    </row>
+    <row r="202" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B202">
+        <f t="shared" si="4"/>
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B203">
+        <f t="shared" si="4"/>
+        <v>84300</v>
+      </c>
+    </row>
+    <row r="204" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B204">
+        <f t="shared" si="4"/>
+        <v>84600</v>
+      </c>
+    </row>
+    <row r="205" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B205">
+        <f t="shared" si="4"/>
+        <v>84900</v>
+      </c>
+    </row>
+    <row r="206" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B206">
+        <f t="shared" si="4"/>
+        <v>85200</v>
+      </c>
+    </row>
+    <row r="207" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B207">
+        <f t="shared" si="4"/>
+        <v>85500</v>
+      </c>
+    </row>
+    <row r="208" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B208">
+        <f t="shared" si="4"/>
+        <v>85800</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B209">
+        <f t="shared" si="4"/>
+        <v>86100</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B210">
+        <f t="shared" si="4"/>
+        <v>86400</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B211">
+        <f t="shared" si="4"/>
+        <v>86700</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B212">
+        <f t="shared" si="4"/>
+        <v>87000</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B213">
+        <f t="shared" si="4"/>
+        <v>87300</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B214">
+        <f t="shared" si="4"/>
+        <v>87600</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B215">
+        <f t="shared" si="4"/>
+        <v>87900</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B216">
+        <f t="shared" si="4"/>
+        <v>87901</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B217">
+        <f t="shared" si="4"/>
+        <v>88200</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B218">
+        <f t="shared" si="4"/>
+        <v>88201</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B219">
+        <f t="shared" si="4"/>
+        <v>88500</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B220">
+        <f t="shared" si="4"/>
+        <v>88501</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B221">
+        <f t="shared" si="4"/>
+        <v>89100</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B222">
+        <f t="shared" si="4"/>
+        <v>89101</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B223">
+        <f t="shared" si="4"/>
+        <v>89400</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B224">
+        <f t="shared" si="4"/>
+        <v>89401</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B225">
+        <f t="shared" si="4"/>
+        <v>89700</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B226">
+        <f t="shared" si="4"/>
+        <v>89701</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B227">
+        <f t="shared" si="4"/>
+        <v>90300</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B228">
+        <f t="shared" si="4"/>
+        <v>90600</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B229">
+        <f t="shared" si="4"/>
+        <v>90900</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B230">
+        <f t="shared" si="4"/>
+        <v>91200</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B231">
+        <f t="shared" si="4"/>
+        <v>92700</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B232">
+        <f t="shared" ref="B232:B256" si="5">9600+B200</f>
+        <v>93000</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B233">
+        <f t="shared" si="5"/>
+        <v>93300</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B234">
+        <f t="shared" si="5"/>
+        <v>93600</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B235">
+        <f t="shared" si="5"/>
+        <v>93900</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B236">
+        <f t="shared" si="5"/>
+        <v>94200</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B237">
+        <f t="shared" si="5"/>
+        <v>94500</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B238">
+        <f t="shared" si="5"/>
+        <v>94800</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B239">
+        <f t="shared" si="5"/>
+        <v>95100</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B240">
+        <f t="shared" si="5"/>
+        <v>95400</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B241">
+        <f t="shared" si="5"/>
+        <v>95700</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B242">
+        <f t="shared" si="5"/>
+        <v>96000</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B243">
+        <f t="shared" si="5"/>
+        <v>96300</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B244">
+        <f t="shared" si="5"/>
+        <v>96600</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B245">
+        <f t="shared" si="5"/>
+        <v>96900</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B246">
+        <f t="shared" si="5"/>
+        <v>97200</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B247">
+        <f t="shared" si="5"/>
+        <v>97500</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B248">
+        <f t="shared" si="5"/>
+        <v>97501</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B249">
+        <f t="shared" si="5"/>
+        <v>97800</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B250">
+        <f t="shared" si="5"/>
+        <v>97801</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B251">
+        <f t="shared" si="5"/>
+        <v>98100</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B252">
+        <f t="shared" si="5"/>
+        <v>98101</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B253">
+        <f t="shared" si="5"/>
+        <v>98700</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B254">
+        <f t="shared" si="5"/>
+        <v>98701</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B255">
+        <f t="shared" si="5"/>
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B256">
+        <f t="shared" si="5"/>
+        <v>99001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5C2239-5337-493D-BF32-9002E7D7184B}">
-  <dimension ref="G1:G36"/>
+  <dimension ref="A1:H369"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G36" s="1"/>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>1800</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f t="shared" ref="C2:C65" si="0">CONCATENATE(F2,":",G2,":",H2)</f>
+        <v>0:01:80</v>
+      </c>
+      <c r="F2">
+        <f xml:space="preserve"> QUOTIENT($B2,60000)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" t="str">
+        <f>RIGHT(CONCATENATE("00", QUOTIENT(MOD($B2,60000), 1000)), 2)</f>
+        <v>01</v>
+      </c>
+      <c r="H2" t="str">
+        <f>RIGHT(CONCATENATE("00", MOD($B2,1000) / 10), 2)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>3000</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:03:00</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="1" xml:space="preserve"> QUOTIENT($B3,60000)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G66" si="2">RIGHT(CONCATENATE("00", QUOTIENT(MOD($B3,60000), 1000)), 2)</f>
+        <v>03</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H66" si="3">RIGHT(CONCATENATE("00", MOD($B3,1000) / 10), 2)</f>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>4000</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:04:00</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="2"/>
+        <v>04</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>4500</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:04:50</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="2"/>
+        <v>04</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>5100</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:05:10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="2"/>
+        <v>05</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>6300</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:06:30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="2"/>
+        <v>06</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>6900</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:06:90</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="2"/>
+        <v>06</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>7350</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:07:35</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="2"/>
+        <v>07</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>8100</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:08:10</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="2"/>
+        <v>08</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>8400</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:08:40</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="2"/>
+        <v>08</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>8700</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:08:70</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="2"/>
+        <v>08</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>9300</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:09:30</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="2"/>
+        <v>09</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>9750</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:09:75</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="2"/>
+        <v>09</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>10500</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:10:50</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>10800</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:10:80</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>11100</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:11:10</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>11700</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:11:70</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>12150</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:12:15</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>12900</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:12:90</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21">
+        <v>13500</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:13:50</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>14100</v>
+      </c>
+      <c r="C22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:14:10</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>14550</v>
+      </c>
+      <c r="C23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:14:55</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>15300</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:15:30</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25">
+        <v>15600</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:15:60</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26">
+        <v>15900</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:15:90</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27">
+        <v>16500</v>
+      </c>
+      <c r="C27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:16:50</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28">
+        <v>16950</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:16:95</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>17700</v>
+      </c>
+      <c r="C29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:17:70</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30">
+        <v>18000</v>
+      </c>
+      <c r="C30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:18:00</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31">
+        <v>18300</v>
+      </c>
+      <c r="C31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:18:30</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32">
+        <v>18900</v>
+      </c>
+      <c r="C32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:18:90</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33">
+        <v>19350</v>
+      </c>
+      <c r="C33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:19:35</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34">
+        <v>20100</v>
+      </c>
+      <c r="C34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:20:10</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35">
+        <v>20400</v>
+      </c>
+      <c r="C35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:20:40</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36">
+        <v>20700</v>
+      </c>
+      <c r="C36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:20:70</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37">
+        <v>21300</v>
+      </c>
+      <c r="C37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:21:30</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38">
+        <v>21750</v>
+      </c>
+      <c r="C38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:21:75</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39">
+        <v>22500</v>
+      </c>
+      <c r="C39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:22:50</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40">
+        <v>22800</v>
+      </c>
+      <c r="C40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:22:80</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41">
+        <v>23100</v>
+      </c>
+      <c r="C41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:23:10</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42">
+        <v>23700</v>
+      </c>
+      <c r="C42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:23:70</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43">
+        <v>24150</v>
+      </c>
+      <c r="C43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:24:15</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44">
+        <v>25050</v>
+      </c>
+      <c r="C44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:25:05</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="3"/>
+        <v>05</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45">
+        <v>25200</v>
+      </c>
+      <c r="C45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:25:20</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46">
+        <v>25350</v>
+      </c>
+      <c r="C46" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:25:35</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47">
+        <v>25500</v>
+      </c>
+      <c r="C47" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:25:50</v>
+      </c>
+      <c r="D47" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48">
+        <v>25950</v>
+      </c>
+      <c r="C48" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:25:95</v>
+      </c>
+      <c r="D48" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
+        <v>26400</v>
+      </c>
+      <c r="C49" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:26:40</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50">
+        <v>26700</v>
+      </c>
+      <c r="C50" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:26:70</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51">
+        <v>27150</v>
+      </c>
+      <c r="C51" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:27:15</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>27600</v>
+      </c>
+      <c r="C52" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:27:60</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53">
+        <v>27900</v>
+      </c>
+      <c r="C53" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:27:90</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54">
+        <v>28500</v>
+      </c>
+      <c r="C54" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:28:50</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55">
+        <v>29100</v>
+      </c>
+      <c r="C55" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:29:10</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56">
+        <v>29700</v>
+      </c>
+      <c r="C56" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:29:70</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>30300</v>
+      </c>
+      <c r="C57" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:30:30</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B58">
+        <v>30900</v>
+      </c>
+      <c r="C58" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:30:90</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B59">
+        <v>31200</v>
+      </c>
+      <c r="C59" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:31:20</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60">
+        <v>31500</v>
+      </c>
+      <c r="C60" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:31:50</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61">
+        <v>31950</v>
+      </c>
+      <c r="C61" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:31:95</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B62">
+        <v>32400</v>
+      </c>
+      <c r="C62" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:32:40</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="H62" t="str">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B63">
+        <v>32700</v>
+      </c>
+      <c r="C63" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:32:70</v>
+      </c>
+      <c r="D63" t="s">
+        <v>30</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64">
+        <v>33300</v>
+      </c>
+      <c r="C64" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:33:30</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="H64" t="str">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65">
+        <v>33900</v>
+      </c>
+      <c r="C65" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0:33:90</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="H65" t="str">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B66">
+        <v>34500</v>
+      </c>
+      <c r="C66" s="1" t="str">
+        <f t="shared" ref="C66:C129" si="4">CONCATENATE(F66,":",G66,":",H66)</f>
+        <v>0:34:50</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="H66" t="str">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B67">
+        <v>35100</v>
+      </c>
+      <c r="C67" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0:35:10</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F130" si="5" xml:space="preserve"> QUOTIENT($B67,60000)</f>
+        <v>0</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" ref="G67:G130" si="6">RIGHT(CONCATENATE("00", QUOTIENT(MOD($B67,60000), 1000)), 2)</f>
+        <v>35</v>
+      </c>
+      <c r="H67" t="str">
+        <f t="shared" ref="H67:H130" si="7">RIGHT(CONCATENATE("00", MOD($B67,1000) / 10), 2)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B68">
+        <v>35700</v>
+      </c>
+      <c r="C68" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0:35:70</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="H68" t="str">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B69">
+        <v>36000</v>
+      </c>
+      <c r="C69" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0:36:00</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="H69" t="str">
+        <f t="shared" si="7"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B70">
+        <v>36300</v>
+      </c>
+      <c r="C70" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0:36:30</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="H70" t="str">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B71">
+        <v>36750</v>
+      </c>
+      <c r="C71" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0:36:75</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="H71" t="str">
+        <f t="shared" si="7"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B72">
+        <v>37200</v>
+      </c>
+      <c r="C72" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0:37:20</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="6"/>
+        <v>37</v>
+      </c>
+      <c r="H72" t="str">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B73">
+        <v>37500</v>
+      </c>
+      <c r="C73" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0:37:50</v>
+      </c>
+      <c r="D73" t="s">
+        <v>30</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="6"/>
+        <v>37</v>
+      </c>
+      <c r="H73" t="str">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B74">
+        <v>38100</v>
+      </c>
+      <c r="C74" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0:38:10</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="6"/>
+        <v>38</v>
+      </c>
+      <c r="H74" t="str">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B75">
+        <v>38700</v>
+      </c>
+      <c r="C75" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0:38:70</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="6"/>
+        <v>38</v>
+      </c>
+      <c r="H75" t="str">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B76">
+        <v>39300</v>
+      </c>
+      <c r="C76" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0:39:30</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="H76" t="str">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B77">
+        <v>39900</v>
+      </c>
+      <c r="C77" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0:39:90</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="H77" t="str">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B78">
+        <v>40500</v>
+      </c>
+      <c r="C78" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0:40:50</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="H78" t="str">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B79">
+        <v>40800</v>
+      </c>
+      <c r="C79" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0:40:80</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="H79" t="str">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B80">
+        <v>41100</v>
+      </c>
+      <c r="C80" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0:41:10</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" si="6"/>
+        <v>41</v>
+      </c>
+      <c r="H80" t="str">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B81">
+        <v>41550</v>
+      </c>
+      <c r="C81" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0:41:55</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="6"/>
+        <v>41</v>
+      </c>
+      <c r="H81" t="str">
+        <f t="shared" si="7"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B82">
+        <v>42000</v>
+      </c>
+      <c r="C82" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0:42:00</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="6"/>
+        <v>42</v>
+      </c>
+      <c r="H82" t="str">
+        <f t="shared" si="7"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B83">
+        <v>42300</v>
+      </c>
+      <c r="C83" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0:42:30</v>
+      </c>
+      <c r="D83" t="s">
+        <v>30</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="6"/>
+        <v>42</v>
+      </c>
+      <c r="H83" t="str">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B84">
+        <v>42600</v>
+      </c>
+      <c r="C84" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0:42:60</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="6"/>
+        <v>42</v>
+      </c>
+      <c r="H84" t="str">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B85">
+        <f>B84+300</f>
+        <v>42900</v>
+      </c>
+      <c r="C85" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0:42:90</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="6"/>
+        <v>42</v>
+      </c>
+      <c r="H85" t="str">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B86">
+        <f t="shared" ref="B86:B93" si="8">B85+300</f>
+        <v>43200</v>
+      </c>
+      <c r="C86" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0:43:20</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="6"/>
+        <v>43</v>
+      </c>
+      <c r="H86" t="str">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="8"/>
+        <v>43500</v>
+      </c>
+      <c r="C87" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0:43:50</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" si="6"/>
+        <v>43</v>
+      </c>
+      <c r="H87" t="str">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="8"/>
+        <v>43800</v>
+      </c>
+      <c r="C88" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0:43:80</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G88" t="str">
+        <f t="shared" si="6"/>
+        <v>43</v>
+      </c>
+      <c r="H88" t="str">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="8"/>
+        <v>44100</v>
+      </c>
+      <c r="C89" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0:44:10</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G89" t="str">
+        <f t="shared" si="6"/>
+        <v>44</v>
+      </c>
+      <c r="H89" t="str">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="8"/>
+        <v>44400</v>
+      </c>
+      <c r="C90" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0:44:40</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G90" t="str">
+        <f t="shared" si="6"/>
+        <v>44</v>
+      </c>
+      <c r="H90" t="str">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B91">
+        <f>19200+B47</f>
+        <v>44700</v>
+      </c>
+      <c r="C91" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0:44:70</v>
+      </c>
+      <c r="D91" t="s">
+        <v>31</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G91" t="str">
+        <f t="shared" si="6"/>
+        <v>44</v>
+      </c>
+      <c r="H91" t="str">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B92">
+        <f t="shared" ref="B92:B135" si="9">19200+B48</f>
+        <v>45150</v>
+      </c>
+      <c r="C92" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0:45:15</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G92" t="str">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="H92" t="str">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B93">
+        <f t="shared" si="9"/>
+        <v>45600</v>
+      </c>
+      <c r="C93" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0:45:60</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G93" t="str">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="H93" t="str">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B94">
+        <f t="shared" si="9"/>
+        <v>45900</v>
+      </c>
+      <c r="C94" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0:45:90</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G94" t="str">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="H94" t="str">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B95">
+        <f t="shared" si="9"/>
+        <v>46350</v>
+      </c>
+      <c r="C95" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0:46:35</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G95" t="str">
+        <f t="shared" si="6"/>
+        <v>46</v>
+      </c>
+      <c r="H95" t="str">
+        <f t="shared" si="7"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B96">
+        <f t="shared" si="9"/>
+        <v>46800</v>
+      </c>
+      <c r="C96" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0:46:80</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G96" t="str">
+        <f t="shared" si="6"/>
+        <v>46</v>
+      </c>
+      <c r="H96" t="str">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B97">
+        <f t="shared" si="9"/>
+        <v>47100</v>
+      </c>
+      <c r="C97" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0:47:10</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G97" t="str">
+        <f t="shared" si="6"/>
+        <v>47</v>
+      </c>
+      <c r="H97" t="str">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B98">
+        <f t="shared" si="9"/>
+        <v>47700</v>
+      </c>
+      <c r="C98" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0:47:70</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G98" t="str">
+        <f t="shared" si="6"/>
+        <v>47</v>
+      </c>
+      <c r="H98" t="str">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B99">
+        <f t="shared" si="9"/>
+        <v>48300</v>
+      </c>
+      <c r="C99" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0:48:30</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G99" t="str">
+        <f t="shared" si="6"/>
+        <v>48</v>
+      </c>
+      <c r="H99" t="str">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B100">
+        <f t="shared" si="9"/>
+        <v>48900</v>
+      </c>
+      <c r="C100" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0:48:90</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G100" t="str">
+        <f t="shared" si="6"/>
+        <v>48</v>
+      </c>
+      <c r="H100" t="str">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B101">
+        <f t="shared" si="9"/>
+        <v>49500</v>
+      </c>
+      <c r="C101" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0:49:50</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G101" t="str">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="H101" t="str">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B102">
+        <f t="shared" si="9"/>
+        <v>50100</v>
+      </c>
+      <c r="C102" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0:50:10</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G102" t="str">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="H102" t="str">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B103">
+        <f t="shared" si="9"/>
+        <v>50400</v>
+      </c>
+      <c r="C103" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0:50:40</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G103" t="str">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="H103" t="str">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B104">
+        <f t="shared" si="9"/>
+        <v>50700</v>
+      </c>
+      <c r="C104" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0:50:70</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G104" t="str">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="H104" t="str">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B105">
+        <f t="shared" si="9"/>
+        <v>51150</v>
+      </c>
+      <c r="C105" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0:51:15</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G105" t="str">
+        <f t="shared" si="6"/>
+        <v>51</v>
+      </c>
+      <c r="H105" t="str">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B106">
+        <f t="shared" si="9"/>
+        <v>51600</v>
+      </c>
+      <c r="C106" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0:51:60</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G106" t="str">
+        <f t="shared" si="6"/>
+        <v>51</v>
+      </c>
+      <c r="H106" t="str">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B107">
+        <f t="shared" si="9"/>
+        <v>51900</v>
+      </c>
+      <c r="C107" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0:51:90</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G107" t="str">
+        <f t="shared" si="6"/>
+        <v>51</v>
+      </c>
+      <c r="H107" t="str">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B108">
+        <f t="shared" si="9"/>
+        <v>52500</v>
+      </c>
+      <c r="C108" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0:52:50</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G108" t="str">
+        <f t="shared" si="6"/>
+        <v>52</v>
+      </c>
+      <c r="H108" t="str">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B109">
+        <f t="shared" si="9"/>
+        <v>53100</v>
+      </c>
+      <c r="C109" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0:53:10</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G109" t="str">
+        <f t="shared" si="6"/>
+        <v>53</v>
+      </c>
+      <c r="H109" t="str">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B110">
+        <f t="shared" si="9"/>
+        <v>53700</v>
+      </c>
+      <c r="C110" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0:53:70</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G110" t="str">
+        <f t="shared" si="6"/>
+        <v>53</v>
+      </c>
+      <c r="H110" t="str">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B111">
+        <f t="shared" si="9"/>
+        <v>54300</v>
+      </c>
+      <c r="C111" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0:54:30</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G111" t="str">
+        <f t="shared" si="6"/>
+        <v>54</v>
+      </c>
+      <c r="H111" t="str">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B112">
+        <f t="shared" si="9"/>
+        <v>54900</v>
+      </c>
+      <c r="C112" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0:54:90</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G112" t="str">
+        <f t="shared" si="6"/>
+        <v>54</v>
+      </c>
+      <c r="H112" t="str">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B113">
+        <f t="shared" si="9"/>
+        <v>55200</v>
+      </c>
+      <c r="C113" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0:55:20</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G113" t="str">
+        <f t="shared" si="6"/>
+        <v>55</v>
+      </c>
+      <c r="H113" t="str">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B114">
+        <f t="shared" si="9"/>
+        <v>55500</v>
+      </c>
+      <c r="C114" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0:55:50</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G114" t="str">
+        <f t="shared" si="6"/>
+        <v>55</v>
+      </c>
+      <c r="H114" t="str">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B115">
+        <f t="shared" si="9"/>
+        <v>55950</v>
+      </c>
+      <c r="C115" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0:55:95</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G115" t="str">
+        <f t="shared" si="6"/>
+        <v>55</v>
+      </c>
+      <c r="H115" t="str">
+        <f t="shared" si="7"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B116">
+        <f t="shared" si="9"/>
+        <v>56400</v>
+      </c>
+      <c r="C116" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0:56:40</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G116" t="str">
+        <f t="shared" si="6"/>
+        <v>56</v>
+      </c>
+      <c r="H116" t="str">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B117">
+        <f t="shared" si="9"/>
+        <v>56700</v>
+      </c>
+      <c r="C117" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0:56:70</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G117" t="str">
+        <f t="shared" si="6"/>
+        <v>56</v>
+      </c>
+      <c r="H117" t="str">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B118">
+        <f t="shared" si="9"/>
+        <v>57300</v>
+      </c>
+      <c r="C118" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0:57:30</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G118" t="str">
+        <f t="shared" si="6"/>
+        <v>57</v>
+      </c>
+      <c r="H118" t="str">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B119">
+        <f t="shared" si="9"/>
+        <v>57900</v>
+      </c>
+      <c r="C119" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0:57:90</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G119" t="str">
+        <f t="shared" si="6"/>
+        <v>57</v>
+      </c>
+      <c r="H119" t="str">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B120">
+        <f t="shared" si="9"/>
+        <v>58500</v>
+      </c>
+      <c r="C120" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0:58:50</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G120" t="str">
+        <f t="shared" si="6"/>
+        <v>58</v>
+      </c>
+      <c r="H120" t="str">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B121">
+        <f t="shared" si="9"/>
+        <v>59100</v>
+      </c>
+      <c r="C121" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0:59:10</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G121" t="str">
+        <f t="shared" si="6"/>
+        <v>59</v>
+      </c>
+      <c r="H121" t="str">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B122">
+        <f t="shared" si="9"/>
+        <v>59700</v>
+      </c>
+      <c r="C122" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0:59:70</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G122" t="str">
+        <f t="shared" si="6"/>
+        <v>59</v>
+      </c>
+      <c r="H122" t="str">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B123">
+        <f t="shared" si="9"/>
+        <v>60000</v>
+      </c>
+      <c r="C123" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>1:00:00</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G123" t="str">
+        <f t="shared" si="6"/>
+        <v>00</v>
+      </c>
+      <c r="H123" t="str">
+        <f t="shared" si="7"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B124">
+        <f t="shared" si="9"/>
+        <v>60300</v>
+      </c>
+      <c r="C124" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>1:00:30</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G124" t="str">
+        <f t="shared" si="6"/>
+        <v>00</v>
+      </c>
+      <c r="H124" t="str">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B125">
+        <f t="shared" si="9"/>
+        <v>60750</v>
+      </c>
+      <c r="C125" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>1:00:75</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G125" t="str">
+        <f t="shared" si="6"/>
+        <v>00</v>
+      </c>
+      <c r="H125" t="str">
+        <f t="shared" si="7"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B126">
+        <f t="shared" si="9"/>
+        <v>61200</v>
+      </c>
+      <c r="C126" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>1:01:20</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G126" t="str">
+        <f t="shared" si="6"/>
+        <v>01</v>
+      </c>
+      <c r="H126" t="str">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B127">
+        <f t="shared" si="9"/>
+        <v>61500</v>
+      </c>
+      <c r="C127" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>1:01:50</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G127" t="str">
+        <f t="shared" si="6"/>
+        <v>01</v>
+      </c>
+      <c r="H127" t="str">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B128">
+        <f t="shared" si="9"/>
+        <v>61800</v>
+      </c>
+      <c r="C128" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>1:01:80</v>
+      </c>
+      <c r="F128">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G128" t="str">
+        <f t="shared" si="6"/>
+        <v>01</v>
+      </c>
+      <c r="H128" t="str">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B129">
+        <f t="shared" si="9"/>
+        <v>62100</v>
+      </c>
+      <c r="C129" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>1:02:10</v>
+      </c>
+      <c r="F129">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G129" t="str">
+        <f t="shared" si="6"/>
+        <v>02</v>
+      </c>
+      <c r="H129" t="str">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B130">
+        <f t="shared" si="9"/>
+        <v>62400</v>
+      </c>
+      <c r="C130" s="1" t="str">
+        <f t="shared" ref="C130:C193" si="10">CONCATENATE(F130,":",G130,":",H130)</f>
+        <v>1:02:40</v>
+      </c>
+      <c r="F130">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G130" t="str">
+        <f t="shared" si="6"/>
+        <v>02</v>
+      </c>
+      <c r="H130" t="str">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B131">
+        <f t="shared" si="9"/>
+        <v>62700</v>
+      </c>
+      <c r="C131" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:02:70</v>
+      </c>
+      <c r="D131" t="s">
+        <v>30</v>
+      </c>
+      <c r="F131">
+        <f t="shared" ref="F131:F194" si="11" xml:space="preserve"> QUOTIENT($B131,60000)</f>
+        <v>1</v>
+      </c>
+      <c r="G131" t="str">
+        <f t="shared" ref="G131:G194" si="12">RIGHT(CONCATENATE("00", QUOTIENT(MOD($B131,60000), 1000)), 2)</f>
+        <v>02</v>
+      </c>
+      <c r="H131" t="str">
+        <f t="shared" ref="H131:H194" si="13">RIGHT(CONCATENATE("00", MOD($B131,1000) / 10), 2)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B132">
+        <f t="shared" si="9"/>
+        <v>63000</v>
+      </c>
+      <c r="C132" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:03:00</v>
+      </c>
+      <c r="F132">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G132" t="str">
+        <f t="shared" si="12"/>
+        <v>03</v>
+      </c>
+      <c r="H132" t="str">
+        <f t="shared" si="13"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B133">
+        <f t="shared" si="9"/>
+        <v>63300</v>
+      </c>
+      <c r="C133" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:03:30</v>
+      </c>
+      <c r="F133">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G133" t="str">
+        <f t="shared" si="12"/>
+        <v>03</v>
+      </c>
+      <c r="H133" t="str">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B134">
+        <f t="shared" si="9"/>
+        <v>63600</v>
+      </c>
+      <c r="C134" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:03:60</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G134" t="str">
+        <f t="shared" si="12"/>
+        <v>03</v>
+      </c>
+      <c r="H134" t="str">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B135">
+        <f t="shared" si="9"/>
+        <v>63900</v>
+      </c>
+      <c r="C135" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:03:90</v>
+      </c>
+      <c r="D135" t="s">
+        <v>32</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G135" t="str">
+        <f t="shared" si="12"/>
+        <v>03</v>
+      </c>
+      <c r="H135" t="str">
+        <f t="shared" si="13"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B136">
+        <f>B135+300</f>
+        <v>64200</v>
+      </c>
+      <c r="C136" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:04:20</v>
+      </c>
+      <c r="D136" t="s">
+        <v>25</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G136" t="str">
+        <f t="shared" si="12"/>
+        <v>04</v>
+      </c>
+      <c r="H136" t="str">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B137">
+        <f t="shared" ref="B137:B162" si="14">B136+300</f>
+        <v>64500</v>
+      </c>
+      <c r="C137" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:04:50</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G137" t="str">
+        <f t="shared" si="12"/>
+        <v>04</v>
+      </c>
+      <c r="H137" t="str">
+        <f t="shared" si="13"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B138">
+        <f t="shared" si="14"/>
+        <v>64800</v>
+      </c>
+      <c r="C138" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:04:80</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G138" t="str">
+        <f t="shared" si="12"/>
+        <v>04</v>
+      </c>
+      <c r="H138" t="str">
+        <f t="shared" si="13"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B139">
+        <f t="shared" si="14"/>
+        <v>65100</v>
+      </c>
+      <c r="C139" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:05:10</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G139" t="str">
+        <f t="shared" si="12"/>
+        <v>05</v>
+      </c>
+      <c r="H139" t="str">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B140">
+        <f t="shared" si="14"/>
+        <v>65400</v>
+      </c>
+      <c r="C140" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:05:40</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G140" t="str">
+        <f t="shared" si="12"/>
+        <v>05</v>
+      </c>
+      <c r="H140" t="str">
+        <f t="shared" si="13"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="141" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B141">
+        <f t="shared" si="14"/>
+        <v>65700</v>
+      </c>
+      <c r="C141" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:05:70</v>
+      </c>
+      <c r="F141">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G141" t="str">
+        <f t="shared" si="12"/>
+        <v>05</v>
+      </c>
+      <c r="H141" t="str">
+        <f t="shared" si="13"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B142">
+        <f t="shared" si="14"/>
+        <v>66000</v>
+      </c>
+      <c r="C142" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:06:00</v>
+      </c>
+      <c r="F142">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G142" t="str">
+        <f t="shared" si="12"/>
+        <v>06</v>
+      </c>
+      <c r="H142" t="str">
+        <f t="shared" si="13"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B143">
+        <f t="shared" si="14"/>
+        <v>66300</v>
+      </c>
+      <c r="C143" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:06:30</v>
+      </c>
+      <c r="F143">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G143" t="str">
+        <f t="shared" si="12"/>
+        <v>06</v>
+      </c>
+      <c r="H143" t="str">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="144" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B144">
+        <f t="shared" si="14"/>
+        <v>66600</v>
+      </c>
+      <c r="C144" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:06:60</v>
+      </c>
+      <c r="F144">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G144" t="str">
+        <f t="shared" si="12"/>
+        <v>06</v>
+      </c>
+      <c r="H144" t="str">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B145">
+        <f t="shared" si="14"/>
+        <v>66900</v>
+      </c>
+      <c r="C145" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:06:90</v>
+      </c>
+      <c r="F145">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G145" t="str">
+        <f t="shared" si="12"/>
+        <v>06</v>
+      </c>
+      <c r="H145" t="str">
+        <f t="shared" si="13"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B146">
+        <f t="shared" si="14"/>
+        <v>67200</v>
+      </c>
+      <c r="C146" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:07:20</v>
+      </c>
+      <c r="F146">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G146" t="str">
+        <f t="shared" si="12"/>
+        <v>07</v>
+      </c>
+      <c r="H146" t="str">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B147">
+        <f t="shared" si="14"/>
+        <v>67500</v>
+      </c>
+      <c r="C147" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:07:50</v>
+      </c>
+      <c r="F147">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G147" t="str">
+        <f t="shared" si="12"/>
+        <v>07</v>
+      </c>
+      <c r="H147" t="str">
+        <f t="shared" si="13"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B148">
+        <f t="shared" si="14"/>
+        <v>67800</v>
+      </c>
+      <c r="C148" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:07:80</v>
+      </c>
+      <c r="F148">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G148" t="str">
+        <f t="shared" si="12"/>
+        <v>07</v>
+      </c>
+      <c r="H148" t="str">
+        <f t="shared" si="13"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B149">
+        <f t="shared" si="14"/>
+        <v>68100</v>
+      </c>
+      <c r="C149" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:08:10</v>
+      </c>
+      <c r="F149">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G149" t="str">
+        <f t="shared" si="12"/>
+        <v>08</v>
+      </c>
+      <c r="H149" t="str">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B150">
+        <f t="shared" si="14"/>
+        <v>68400</v>
+      </c>
+      <c r="C150" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:08:40</v>
+      </c>
+      <c r="F150">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G150" t="str">
+        <f t="shared" si="12"/>
+        <v>08</v>
+      </c>
+      <c r="H150" t="str">
+        <f t="shared" si="13"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151" s="2">
+        <v>1</v>
+      </c>
+      <c r="B151">
+        <f t="shared" si="14"/>
+        <v>68700</v>
+      </c>
+      <c r="C151" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:08:70</v>
+      </c>
+      <c r="D151" t="s">
+        <v>33</v>
+      </c>
+      <c r="F151">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G151" t="str">
+        <f t="shared" si="12"/>
+        <v>08</v>
+      </c>
+      <c r="H151" t="str">
+        <f t="shared" si="13"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A152" s="2">
+        <v>0</v>
+      </c>
+      <c r="B152">
+        <v>68701</v>
+      </c>
+      <c r="C152" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:08:.1</v>
+      </c>
+      <c r="F152">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G152" t="str">
+        <f t="shared" si="12"/>
+        <v>08</v>
+      </c>
+      <c r="H152" t="str">
+        <f t="shared" si="13"/>
+        <v>.1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A153" s="2">
+        <v>2</v>
+      </c>
+      <c r="B153">
+        <f>B151+300</f>
+        <v>69000</v>
+      </c>
+      <c r="C153" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:09:00</v>
+      </c>
+      <c r="F153">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G153" t="str">
+        <f t="shared" si="12"/>
+        <v>09</v>
+      </c>
+      <c r="H153" t="str">
+        <f t="shared" si="13"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A154" s="2">
+        <v>9</v>
+      </c>
+      <c r="B154">
+        <f>B152+300</f>
+        <v>69001</v>
+      </c>
+      <c r="C154" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:09:.1</v>
+      </c>
+      <c r="D154" t="s">
+        <v>25</v>
+      </c>
+      <c r="F154">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G154" t="str">
+        <f t="shared" si="12"/>
+        <v>09</v>
+      </c>
+      <c r="H154" t="str">
+        <f t="shared" si="13"/>
+        <v>.1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A155" s="2">
+        <v>3</v>
+      </c>
+      <c r="B155">
+        <f>B153+300</f>
+        <v>69300</v>
+      </c>
+      <c r="C155" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:09:30</v>
+      </c>
+      <c r="F155">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G155" t="str">
+        <f t="shared" si="12"/>
+        <v>09</v>
+      </c>
+      <c r="H155" t="str">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A156" s="2">
+        <v>8</v>
+      </c>
+      <c r="B156">
+        <f>B154+300</f>
+        <v>69301</v>
+      </c>
+      <c r="C156" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:09:.1</v>
+      </c>
+      <c r="F156">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G156" t="str">
+        <f t="shared" si="12"/>
+        <v>09</v>
+      </c>
+      <c r="H156" t="str">
+        <f t="shared" si="13"/>
+        <v>.1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A157" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B157">
+        <v>69900</v>
+      </c>
+      <c r="C157" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:09:90</v>
+      </c>
+      <c r="D157" t="s">
+        <v>33</v>
+      </c>
+      <c r="F157">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G157" t="str">
+        <f t="shared" si="12"/>
+        <v>09</v>
+      </c>
+      <c r="H157" t="str">
+        <f t="shared" si="13"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A158" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B158">
+        <v>69901</v>
+      </c>
+      <c r="C158" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:09:.1</v>
+      </c>
+      <c r="F158">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G158" t="str">
+        <f t="shared" si="12"/>
+        <v>09</v>
+      </c>
+      <c r="H158" t="str">
+        <f t="shared" si="13"/>
+        <v>.1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A159" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B159">
+        <f>B157+300</f>
+        <v>70200</v>
+      </c>
+      <c r="C159" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:10:20</v>
+      </c>
+      <c r="F159">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G159" t="str">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="H159" t="str">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A160" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B160">
+        <f t="shared" ref="B160:B162" si="15">B158+300</f>
+        <v>70201</v>
+      </c>
+      <c r="C160" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:10:.1</v>
+      </c>
+      <c r="F160">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G160" t="str">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="H160" t="str">
+        <f t="shared" si="13"/>
+        <v>.1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A161" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B161">
+        <f t="shared" si="15"/>
+        <v>70500</v>
+      </c>
+      <c r="C161" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:10:50</v>
+      </c>
+      <c r="F161">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G161" t="str">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="H161" t="str">
+        <f t="shared" si="13"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A162" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B162">
+        <f t="shared" si="15"/>
+        <v>70501</v>
+      </c>
+      <c r="C162" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:10:.1</v>
+      </c>
+      <c r="F162">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G162" t="str">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="H162" t="str">
+        <f t="shared" si="13"/>
+        <v>.1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B163">
+        <v>71100</v>
+      </c>
+      <c r="C163" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:11:10</v>
+      </c>
+      <c r="D163" t="s">
+        <v>30</v>
+      </c>
+      <c r="F163">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G163" t="str">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="H163" t="str">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B164">
+        <v>71400</v>
+      </c>
+      <c r="C164" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:11:40</v>
+      </c>
+      <c r="D164" t="s">
+        <v>25</v>
+      </c>
+      <c r="F164">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G164" t="str">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="H164" t="str">
+        <f t="shared" si="13"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B165">
+        <v>71700</v>
+      </c>
+      <c r="C165" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:11:70</v>
+      </c>
+      <c r="F165">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G165" t="str">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="H165" t="str">
+        <f t="shared" si="13"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B166">
+        <v>72000</v>
+      </c>
+      <c r="C166" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:12:00</v>
+      </c>
+      <c r="F166">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G166" t="str">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="H166" t="str">
+        <f t="shared" si="13"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B167">
+        <f>9600+B135</f>
+        <v>73500</v>
+      </c>
+      <c r="C167" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:13:50</v>
+      </c>
+      <c r="F167">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G167" t="str">
+        <f t="shared" si="12"/>
+        <v>13</v>
+      </c>
+      <c r="H167" t="str">
+        <f t="shared" si="13"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B168">
+        <f t="shared" ref="B168:B231" si="16">9600+B136</f>
+        <v>73800</v>
+      </c>
+      <c r="C168" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:13:80</v>
+      </c>
+      <c r="F168">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G168" t="str">
+        <f t="shared" si="12"/>
+        <v>13</v>
+      </c>
+      <c r="H168" t="str">
+        <f t="shared" si="13"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B169">
+        <f t="shared" si="16"/>
+        <v>74100</v>
+      </c>
+      <c r="C169" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:14:10</v>
+      </c>
+      <c r="F169">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G169" t="str">
+        <f t="shared" si="12"/>
+        <v>14</v>
+      </c>
+      <c r="H169" t="str">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B170">
+        <f t="shared" si="16"/>
+        <v>74400</v>
+      </c>
+      <c r="C170" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:14:40</v>
+      </c>
+      <c r="F170">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G170" t="str">
+        <f t="shared" si="12"/>
+        <v>14</v>
+      </c>
+      <c r="H170" t="str">
+        <f t="shared" si="13"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B171">
+        <f t="shared" si="16"/>
+        <v>74700</v>
+      </c>
+      <c r="C171" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:14:70</v>
+      </c>
+      <c r="F171">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G171" t="str">
+        <f t="shared" si="12"/>
+        <v>14</v>
+      </c>
+      <c r="H171" t="str">
+        <f t="shared" si="13"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B172">
+        <f t="shared" si="16"/>
+        <v>75000</v>
+      </c>
+      <c r="C172" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:15:00</v>
+      </c>
+      <c r="F172">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G172" t="str">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="H172" t="str">
+        <f t="shared" si="13"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B173">
+        <f t="shared" si="16"/>
+        <v>75300</v>
+      </c>
+      <c r="C173" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:15:30</v>
+      </c>
+      <c r="F173">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G173" t="str">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="H173" t="str">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B174">
+        <f t="shared" si="16"/>
+        <v>75600</v>
+      </c>
+      <c r="C174" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:15:60</v>
+      </c>
+      <c r="F174">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G174" t="str">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="H174" t="str">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B175">
+        <f t="shared" si="16"/>
+        <v>75900</v>
+      </c>
+      <c r="C175" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:15:90</v>
+      </c>
+      <c r="F175">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G175" t="str">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="H175" t="str">
+        <f t="shared" si="13"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B176">
+        <f t="shared" si="16"/>
+        <v>76200</v>
+      </c>
+      <c r="C176" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:16:20</v>
+      </c>
+      <c r="F176">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G176" t="str">
+        <f t="shared" si="12"/>
+        <v>16</v>
+      </c>
+      <c r="H176" t="str">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="177" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B177">
+        <f t="shared" si="16"/>
+        <v>76500</v>
+      </c>
+      <c r="C177" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:16:50</v>
+      </c>
+      <c r="F177">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G177" t="str">
+        <f t="shared" si="12"/>
+        <v>16</v>
+      </c>
+      <c r="H177" t="str">
+        <f t="shared" si="13"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="178" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B178">
+        <f t="shared" si="16"/>
+        <v>76800</v>
+      </c>
+      <c r="C178" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:16:80</v>
+      </c>
+      <c r="F178">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G178" t="str">
+        <f t="shared" si="12"/>
+        <v>16</v>
+      </c>
+      <c r="H178" t="str">
+        <f t="shared" si="13"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="179" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B179">
+        <f t="shared" si="16"/>
+        <v>77100</v>
+      </c>
+      <c r="C179" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:17:10</v>
+      </c>
+      <c r="F179">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G179" t="str">
+        <f t="shared" si="12"/>
+        <v>17</v>
+      </c>
+      <c r="H179" t="str">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B180">
+        <f t="shared" si="16"/>
+        <v>77400</v>
+      </c>
+      <c r="C180" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:17:40</v>
+      </c>
+      <c r="F180">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G180" t="str">
+        <f t="shared" si="12"/>
+        <v>17</v>
+      </c>
+      <c r="H180" t="str">
+        <f t="shared" si="13"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="181" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B181">
+        <f t="shared" si="16"/>
+        <v>77700</v>
+      </c>
+      <c r="C181" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:17:70</v>
+      </c>
+      <c r="F181">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G181" t="str">
+        <f t="shared" si="12"/>
+        <v>17</v>
+      </c>
+      <c r="H181" t="str">
+        <f t="shared" si="13"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="182" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B182">
+        <f t="shared" si="16"/>
+        <v>78000</v>
+      </c>
+      <c r="C182" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:18:00</v>
+      </c>
+      <c r="F182">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G182" t="str">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="H182" t="str">
+        <f t="shared" si="13"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="183" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B183">
+        <f t="shared" si="16"/>
+        <v>78300</v>
+      </c>
+      <c r="C183" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:18:30</v>
+      </c>
+      <c r="D183" t="s">
+        <v>33</v>
+      </c>
+      <c r="F183">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G183" t="str">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="H183" t="str">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="184" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B184">
+        <f t="shared" si="16"/>
+        <v>78301</v>
+      </c>
+      <c r="C184" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:18:.1</v>
+      </c>
+      <c r="F184">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G184" t="str">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="H184" t="str">
+        <f t="shared" si="13"/>
+        <v>.1</v>
+      </c>
+    </row>
+    <row r="185" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B185">
+        <f t="shared" si="16"/>
+        <v>78600</v>
+      </c>
+      <c r="C185" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:18:60</v>
+      </c>
+      <c r="F185">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G185" t="str">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="H185" t="str">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="186" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B186">
+        <f t="shared" si="16"/>
+        <v>78601</v>
+      </c>
+      <c r="C186" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:18:.1</v>
+      </c>
+      <c r="D186" t="s">
+        <v>25</v>
+      </c>
+      <c r="F186">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G186" t="str">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="H186" t="str">
+        <f t="shared" si="13"/>
+        <v>.1</v>
+      </c>
+    </row>
+    <row r="187" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B187">
+        <f t="shared" si="16"/>
+        <v>78900</v>
+      </c>
+      <c r="C187" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:18:90</v>
+      </c>
+      <c r="F187">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G187" t="str">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="H187" t="str">
+        <f t="shared" si="13"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="188" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B188">
+        <f t="shared" si="16"/>
+        <v>78901</v>
+      </c>
+      <c r="C188" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:18:.1</v>
+      </c>
+      <c r="F188">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G188" t="str">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="H188" t="str">
+        <f t="shared" si="13"/>
+        <v>.1</v>
+      </c>
+    </row>
+    <row r="189" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B189">
+        <f t="shared" si="16"/>
+        <v>79500</v>
+      </c>
+      <c r="C189" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:19:50</v>
+      </c>
+      <c r="D189" t="s">
+        <v>33</v>
+      </c>
+      <c r="F189">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G189" t="str">
+        <f t="shared" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="H189" t="str">
+        <f t="shared" si="13"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="190" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B190">
+        <f t="shared" si="16"/>
+        <v>79501</v>
+      </c>
+      <c r="C190" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:19:.1</v>
+      </c>
+      <c r="F190">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G190" t="str">
+        <f t="shared" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="H190" t="str">
+        <f t="shared" si="13"/>
+        <v>.1</v>
+      </c>
+    </row>
+    <row r="191" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B191">
+        <f t="shared" si="16"/>
+        <v>79800</v>
+      </c>
+      <c r="C191" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:19:80</v>
+      </c>
+      <c r="F191">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G191" t="str">
+        <f t="shared" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="H191" t="str">
+        <f t="shared" si="13"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="192" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B192">
+        <f t="shared" si="16"/>
+        <v>79801</v>
+      </c>
+      <c r="C192" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:19:.1</v>
+      </c>
+      <c r="F192">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G192" t="str">
+        <f t="shared" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="H192" t="str">
+        <f t="shared" si="13"/>
+        <v>.1</v>
+      </c>
+    </row>
+    <row r="193" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B193">
+        <f t="shared" si="16"/>
+        <v>80100</v>
+      </c>
+      <c r="C193" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>1:20:10</v>
+      </c>
+      <c r="F193">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G193" t="str">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="H193" t="str">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B194">
+        <f t="shared" si="16"/>
+        <v>80101</v>
+      </c>
+      <c r="C194" s="1" t="str">
+        <f t="shared" ref="C194:C257" si="17">CONCATENATE(F194,":",G194,":",H194)</f>
+        <v>1:20:.1</v>
+      </c>
+      <c r="F194">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G194" t="str">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="H194" t="str">
+        <f t="shared" si="13"/>
+        <v>.1</v>
+      </c>
+    </row>
+    <row r="195" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B195">
+        <f t="shared" si="16"/>
+        <v>80700</v>
+      </c>
+      <c r="C195" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:20:70</v>
+      </c>
+      <c r="F195">
+        <f t="shared" ref="F195:F258" si="18" xml:space="preserve"> QUOTIENT($B195,60000)</f>
+        <v>1</v>
+      </c>
+      <c r="G195" t="str">
+        <f t="shared" ref="G195:G258" si="19">RIGHT(CONCATENATE("00", QUOTIENT(MOD($B195,60000), 1000)), 2)</f>
+        <v>20</v>
+      </c>
+      <c r="H195" t="str">
+        <f t="shared" ref="H195:H258" si="20">RIGHT(CONCATENATE("00", MOD($B195,1000) / 10), 2)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="196" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B196">
+        <f t="shared" si="16"/>
+        <v>81000</v>
+      </c>
+      <c r="C196" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:21:00</v>
+      </c>
+      <c r="F196">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G196" t="str">
+        <f t="shared" si="19"/>
+        <v>21</v>
+      </c>
+      <c r="H196" t="str">
+        <f t="shared" si="20"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="197" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B197">
+        <f t="shared" si="16"/>
+        <v>81300</v>
+      </c>
+      <c r="C197" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:21:30</v>
+      </c>
+      <c r="D197" t="s">
+        <v>41</v>
+      </c>
+      <c r="F197">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G197" t="str">
+        <f t="shared" si="19"/>
+        <v>21</v>
+      </c>
+      <c r="H197" t="str">
+        <f t="shared" si="20"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="198" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B198">
+        <f t="shared" si="16"/>
+        <v>81600</v>
+      </c>
+      <c r="C198" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:21:60</v>
+      </c>
+      <c r="F198">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G198" t="str">
+        <f t="shared" si="19"/>
+        <v>21</v>
+      </c>
+      <c r="H198" t="str">
+        <f t="shared" si="20"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="199" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B199">
+        <f t="shared" si="16"/>
+        <v>83100</v>
+      </c>
+      <c r="C199" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:23:10</v>
+      </c>
+      <c r="F199">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G199" t="str">
+        <f t="shared" si="19"/>
+        <v>23</v>
+      </c>
+      <c r="H199" t="str">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B200">
+        <f t="shared" si="16"/>
+        <v>83400</v>
+      </c>
+      <c r="C200" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:23:40</v>
+      </c>
+      <c r="F200">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G200" t="str">
+        <f t="shared" si="19"/>
+        <v>23</v>
+      </c>
+      <c r="H200" t="str">
+        <f t="shared" si="20"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="201" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B201">
+        <f t="shared" si="16"/>
+        <v>83700</v>
+      </c>
+      <c r="C201" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:23:70</v>
+      </c>
+      <c r="F201">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G201" t="str">
+        <f t="shared" si="19"/>
+        <v>23</v>
+      </c>
+      <c r="H201" t="str">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="202" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B202">
+        <f t="shared" si="16"/>
+        <v>84000</v>
+      </c>
+      <c r="C202" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:24:00</v>
+      </c>
+      <c r="F202">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G202" t="str">
+        <f t="shared" si="19"/>
+        <v>24</v>
+      </c>
+      <c r="H202" t="str">
+        <f t="shared" si="20"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="203" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B203">
+        <f t="shared" si="16"/>
+        <v>84300</v>
+      </c>
+      <c r="C203" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:24:30</v>
+      </c>
+      <c r="F203">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G203" t="str">
+        <f t="shared" si="19"/>
+        <v>24</v>
+      </c>
+      <c r="H203" t="str">
+        <f t="shared" si="20"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="204" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B204">
+        <f t="shared" si="16"/>
+        <v>84600</v>
+      </c>
+      <c r="C204" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:24:60</v>
+      </c>
+      <c r="F204">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G204" t="str">
+        <f t="shared" si="19"/>
+        <v>24</v>
+      </c>
+      <c r="H204" t="str">
+        <f t="shared" si="20"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="205" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B205">
+        <f t="shared" si="16"/>
+        <v>84900</v>
+      </c>
+      <c r="C205" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:24:90</v>
+      </c>
+      <c r="F205">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G205" t="str">
+        <f t="shared" si="19"/>
+        <v>24</v>
+      </c>
+      <c r="H205" t="str">
+        <f t="shared" si="20"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="206" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B206">
+        <f t="shared" si="16"/>
+        <v>85200</v>
+      </c>
+      <c r="C206" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:25:20</v>
+      </c>
+      <c r="F206">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G206" t="str">
+        <f t="shared" si="19"/>
+        <v>25</v>
+      </c>
+      <c r="H206" t="str">
+        <f t="shared" si="20"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="207" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B207">
+        <f t="shared" si="16"/>
+        <v>85500</v>
+      </c>
+      <c r="C207" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:25:50</v>
+      </c>
+      <c r="F207">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G207" t="str">
+        <f t="shared" si="19"/>
+        <v>25</v>
+      </c>
+      <c r="H207" t="str">
+        <f t="shared" si="20"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="208" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B208">
+        <f t="shared" si="16"/>
+        <v>85800</v>
+      </c>
+      <c r="C208" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:25:80</v>
+      </c>
+      <c r="F208">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G208" t="str">
+        <f t="shared" si="19"/>
+        <v>25</v>
+      </c>
+      <c r="H208" t="str">
+        <f t="shared" si="20"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="209" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B209">
+        <f t="shared" si="16"/>
+        <v>86100</v>
+      </c>
+      <c r="C209" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:26:10</v>
+      </c>
+      <c r="F209">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G209" t="str">
+        <f t="shared" si="19"/>
+        <v>26</v>
+      </c>
+      <c r="H209" t="str">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B210">
+        <f t="shared" si="16"/>
+        <v>86400</v>
+      </c>
+      <c r="C210" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:26:40</v>
+      </c>
+      <c r="F210">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G210" t="str">
+        <f t="shared" si="19"/>
+        <v>26</v>
+      </c>
+      <c r="H210" t="str">
+        <f t="shared" si="20"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="211" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B211">
+        <f t="shared" si="16"/>
+        <v>86700</v>
+      </c>
+      <c r="C211" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:26:70</v>
+      </c>
+      <c r="F211">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G211" t="str">
+        <f t="shared" si="19"/>
+        <v>26</v>
+      </c>
+      <c r="H211" t="str">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="212" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B212">
+        <f t="shared" si="16"/>
+        <v>87000</v>
+      </c>
+      <c r="C212" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:27:00</v>
+      </c>
+      <c r="F212">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G212" t="str">
+        <f t="shared" si="19"/>
+        <v>27</v>
+      </c>
+      <c r="H212" t="str">
+        <f t="shared" si="20"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="213" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B213">
+        <f t="shared" si="16"/>
+        <v>87300</v>
+      </c>
+      <c r="C213" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:27:30</v>
+      </c>
+      <c r="F213">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G213" t="str">
+        <f t="shared" si="19"/>
+        <v>27</v>
+      </c>
+      <c r="H213" t="str">
+        <f t="shared" si="20"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="214" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B214">
+        <f t="shared" si="16"/>
+        <v>87600</v>
+      </c>
+      <c r="C214" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:27:60</v>
+      </c>
+      <c r="F214">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G214" t="str">
+        <f t="shared" si="19"/>
+        <v>27</v>
+      </c>
+      <c r="H214" t="str">
+        <f t="shared" si="20"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="215" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B215">
+        <f t="shared" si="16"/>
+        <v>87900</v>
+      </c>
+      <c r="C215" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:27:90</v>
+      </c>
+      <c r="D215" t="s">
+        <v>33</v>
+      </c>
+      <c r="F215">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G215" t="str">
+        <f t="shared" si="19"/>
+        <v>27</v>
+      </c>
+      <c r="H215" t="str">
+        <f t="shared" si="20"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="216" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B216">
+        <f t="shared" si="16"/>
+        <v>87901</v>
+      </c>
+      <c r="C216" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:27:.1</v>
+      </c>
+      <c r="F216">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G216" t="str">
+        <f t="shared" si="19"/>
+        <v>27</v>
+      </c>
+      <c r="H216" t="str">
+        <f t="shared" si="20"/>
+        <v>.1</v>
+      </c>
+    </row>
+    <row r="217" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B217">
+        <f t="shared" si="16"/>
+        <v>88200</v>
+      </c>
+      <c r="C217" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:28:20</v>
+      </c>
+      <c r="F217">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G217" t="str">
+        <f t="shared" si="19"/>
+        <v>28</v>
+      </c>
+      <c r="H217" t="str">
+        <f t="shared" si="20"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="218" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B218">
+        <f t="shared" si="16"/>
+        <v>88201</v>
+      </c>
+      <c r="C218" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:28:.1</v>
+      </c>
+      <c r="D218" t="s">
+        <v>25</v>
+      </c>
+      <c r="F218">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G218" t="str">
+        <f t="shared" si="19"/>
+        <v>28</v>
+      </c>
+      <c r="H218" t="str">
+        <f t="shared" si="20"/>
+        <v>.1</v>
+      </c>
+    </row>
+    <row r="219" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B219">
+        <f t="shared" si="16"/>
+        <v>88500</v>
+      </c>
+      <c r="C219" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:28:50</v>
+      </c>
+      <c r="F219">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G219" t="str">
+        <f t="shared" si="19"/>
+        <v>28</v>
+      </c>
+      <c r="H219" t="str">
+        <f t="shared" si="20"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="220" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B220">
+        <f t="shared" si="16"/>
+        <v>88501</v>
+      </c>
+      <c r="C220" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:28:.1</v>
+      </c>
+      <c r="F220">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G220" t="str">
+        <f t="shared" si="19"/>
+        <v>28</v>
+      </c>
+      <c r="H220" t="str">
+        <f t="shared" si="20"/>
+        <v>.1</v>
+      </c>
+    </row>
+    <row r="221" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B221">
+        <f t="shared" si="16"/>
+        <v>89100</v>
+      </c>
+      <c r="C221" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:29:10</v>
+      </c>
+      <c r="D221" t="s">
+        <v>33</v>
+      </c>
+      <c r="F221">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G221" t="str">
+        <f t="shared" si="19"/>
+        <v>29</v>
+      </c>
+      <c r="H221" t="str">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="222" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B222">
+        <f t="shared" si="16"/>
+        <v>89101</v>
+      </c>
+      <c r="C222" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:29:.1</v>
+      </c>
+      <c r="F222">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G222" t="str">
+        <f t="shared" si="19"/>
+        <v>29</v>
+      </c>
+      <c r="H222" t="str">
+        <f t="shared" si="20"/>
+        <v>.1</v>
+      </c>
+    </row>
+    <row r="223" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B223">
+        <f t="shared" si="16"/>
+        <v>89400</v>
+      </c>
+      <c r="C223" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:29:40</v>
+      </c>
+      <c r="F223">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G223" t="str">
+        <f t="shared" si="19"/>
+        <v>29</v>
+      </c>
+      <c r="H223" t="str">
+        <f t="shared" si="20"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="224" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B224">
+        <f t="shared" si="16"/>
+        <v>89401</v>
+      </c>
+      <c r="C224" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:29:.1</v>
+      </c>
+      <c r="F224">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G224" t="str">
+        <f t="shared" si="19"/>
+        <v>29</v>
+      </c>
+      <c r="H224" t="str">
+        <f t="shared" si="20"/>
+        <v>.1</v>
+      </c>
+    </row>
+    <row r="225" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B225">
+        <f t="shared" si="16"/>
+        <v>89700</v>
+      </c>
+      <c r="C225" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:29:70</v>
+      </c>
+      <c r="F225">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G225" t="str">
+        <f t="shared" si="19"/>
+        <v>29</v>
+      </c>
+      <c r="H225" t="str">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="226" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B226">
+        <f t="shared" si="16"/>
+        <v>89701</v>
+      </c>
+      <c r="C226" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:29:.1</v>
+      </c>
+      <c r="F226">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G226" t="str">
+        <f t="shared" si="19"/>
+        <v>29</v>
+      </c>
+      <c r="H226" t="str">
+        <f t="shared" si="20"/>
+        <v>.1</v>
+      </c>
+    </row>
+    <row r="227" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B227">
+        <f t="shared" si="16"/>
+        <v>90300</v>
+      </c>
+      <c r="C227" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:30:30</v>
+      </c>
+      <c r="F227">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G227" t="str">
+        <f t="shared" si="19"/>
+        <v>30</v>
+      </c>
+      <c r="H227" t="str">
+        <f t="shared" si="20"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="228" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B228">
+        <f t="shared" si="16"/>
+        <v>90600</v>
+      </c>
+      <c r="C228" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:30:60</v>
+      </c>
+      <c r="F228">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G228" t="str">
+        <f t="shared" si="19"/>
+        <v>30</v>
+      </c>
+      <c r="H228" t="str">
+        <f t="shared" si="20"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="229" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B229">
+        <f t="shared" si="16"/>
+        <v>90900</v>
+      </c>
+      <c r="C229" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:30:90</v>
+      </c>
+      <c r="F229">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G229" t="str">
+        <f t="shared" si="19"/>
+        <v>30</v>
+      </c>
+      <c r="H229" t="str">
+        <f t="shared" si="20"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="230" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B230">
+        <f t="shared" si="16"/>
+        <v>91200</v>
+      </c>
+      <c r="C230" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:31:20</v>
+      </c>
+      <c r="F230">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G230" t="str">
+        <f t="shared" si="19"/>
+        <v>31</v>
+      </c>
+      <c r="H230" t="str">
+        <f t="shared" si="20"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="231" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B231">
+        <f t="shared" si="16"/>
+        <v>92700</v>
+      </c>
+      <c r="C231" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:32:70</v>
+      </c>
+      <c r="F231">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G231" t="str">
+        <f t="shared" si="19"/>
+        <v>32</v>
+      </c>
+      <c r="H231" t="str">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="232" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B232">
+        <f t="shared" ref="B232:B272" si="21">9600+B200</f>
+        <v>93000</v>
+      </c>
+      <c r="C232" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:33:00</v>
+      </c>
+      <c r="F232">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G232" t="str">
+        <f t="shared" si="19"/>
+        <v>33</v>
+      </c>
+      <c r="H232" t="str">
+        <f t="shared" si="20"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="233" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B233">
+        <f t="shared" si="21"/>
+        <v>93300</v>
+      </c>
+      <c r="C233" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:33:30</v>
+      </c>
+      <c r="F233">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G233" t="str">
+        <f t="shared" si="19"/>
+        <v>33</v>
+      </c>
+      <c r="H233" t="str">
+        <f t="shared" si="20"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="234" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B234">
+        <f t="shared" si="21"/>
+        <v>93600</v>
+      </c>
+      <c r="C234" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:33:60</v>
+      </c>
+      <c r="F234">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G234" t="str">
+        <f t="shared" si="19"/>
+        <v>33</v>
+      </c>
+      <c r="H234" t="str">
+        <f t="shared" si="20"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="235" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B235">
+        <f t="shared" si="21"/>
+        <v>93900</v>
+      </c>
+      <c r="C235" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:33:90</v>
+      </c>
+      <c r="F235">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G235" t="str">
+        <f t="shared" si="19"/>
+        <v>33</v>
+      </c>
+      <c r="H235" t="str">
+        <f t="shared" si="20"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="236" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B236">
+        <f t="shared" si="21"/>
+        <v>94200</v>
+      </c>
+      <c r="C236" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:34:20</v>
+      </c>
+      <c r="F236">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G236" t="str">
+        <f t="shared" si="19"/>
+        <v>34</v>
+      </c>
+      <c r="H236" t="str">
+        <f t="shared" si="20"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="237" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B237">
+        <f t="shared" si="21"/>
+        <v>94500</v>
+      </c>
+      <c r="C237" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:34:50</v>
+      </c>
+      <c r="F237">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G237" t="str">
+        <f t="shared" si="19"/>
+        <v>34</v>
+      </c>
+      <c r="H237" t="str">
+        <f t="shared" si="20"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="238" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B238">
+        <f t="shared" si="21"/>
+        <v>94800</v>
+      </c>
+      <c r="C238" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:34:80</v>
+      </c>
+      <c r="F238">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G238" t="str">
+        <f t="shared" si="19"/>
+        <v>34</v>
+      </c>
+      <c r="H238" t="str">
+        <f t="shared" si="20"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="239" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B239">
+        <f t="shared" si="21"/>
+        <v>95100</v>
+      </c>
+      <c r="C239" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:35:10</v>
+      </c>
+      <c r="F239">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G239" t="str">
+        <f t="shared" si="19"/>
+        <v>35</v>
+      </c>
+      <c r="H239" t="str">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="240" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B240">
+        <f t="shared" si="21"/>
+        <v>95400</v>
+      </c>
+      <c r="C240" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:35:40</v>
+      </c>
+      <c r="F240">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G240" t="str">
+        <f t="shared" si="19"/>
+        <v>35</v>
+      </c>
+      <c r="H240" t="str">
+        <f t="shared" si="20"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="241" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B241">
+        <f t="shared" si="21"/>
+        <v>95700</v>
+      </c>
+      <c r="C241" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:35:70</v>
+      </c>
+      <c r="F241">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G241" t="str">
+        <f t="shared" si="19"/>
+        <v>35</v>
+      </c>
+      <c r="H241" t="str">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="242" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B242">
+        <f t="shared" si="21"/>
+        <v>96000</v>
+      </c>
+      <c r="C242" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:36:00</v>
+      </c>
+      <c r="F242">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G242" t="str">
+        <f t="shared" si="19"/>
+        <v>36</v>
+      </c>
+      <c r="H242" t="str">
+        <f t="shared" si="20"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="243" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B243">
+        <f t="shared" si="21"/>
+        <v>96300</v>
+      </c>
+      <c r="C243" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:36:30</v>
+      </c>
+      <c r="F243">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G243" t="str">
+        <f t="shared" si="19"/>
+        <v>36</v>
+      </c>
+      <c r="H243" t="str">
+        <f t="shared" si="20"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="244" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B244">
+        <f t="shared" si="21"/>
+        <v>96600</v>
+      </c>
+      <c r="C244" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:36:60</v>
+      </c>
+      <c r="F244">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G244" t="str">
+        <f t="shared" si="19"/>
+        <v>36</v>
+      </c>
+      <c r="H244" t="str">
+        <f t="shared" si="20"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="245" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B245">
+        <f t="shared" si="21"/>
+        <v>96900</v>
+      </c>
+      <c r="C245" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:36:90</v>
+      </c>
+      <c r="F245">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G245" t="str">
+        <f t="shared" si="19"/>
+        <v>36</v>
+      </c>
+      <c r="H245" t="str">
+        <f t="shared" si="20"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="246" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B246">
+        <f t="shared" si="21"/>
+        <v>97200</v>
+      </c>
+      <c r="C246" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:37:20</v>
+      </c>
+      <c r="F246">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G246" t="str">
+        <f t="shared" si="19"/>
+        <v>37</v>
+      </c>
+      <c r="H246" t="str">
+        <f t="shared" si="20"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="247" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B247">
+        <f t="shared" si="21"/>
+        <v>97500</v>
+      </c>
+      <c r="C247" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:37:50</v>
+      </c>
+      <c r="D247" t="s">
+        <v>33</v>
+      </c>
+      <c r="F247">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G247" t="str">
+        <f t="shared" si="19"/>
+        <v>37</v>
+      </c>
+      <c r="H247" t="str">
+        <f t="shared" si="20"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="248" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B248">
+        <f t="shared" si="21"/>
+        <v>97501</v>
+      </c>
+      <c r="C248" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:37:.1</v>
+      </c>
+      <c r="F248">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G248" t="str">
+        <f t="shared" si="19"/>
+        <v>37</v>
+      </c>
+      <c r="H248" t="str">
+        <f t="shared" si="20"/>
+        <v>.1</v>
+      </c>
+    </row>
+    <row r="249" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B249">
+        <f t="shared" si="21"/>
+        <v>97800</v>
+      </c>
+      <c r="C249" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:37:80</v>
+      </c>
+      <c r="F249">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G249" t="str">
+        <f t="shared" si="19"/>
+        <v>37</v>
+      </c>
+      <c r="H249" t="str">
+        <f t="shared" si="20"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="250" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B250">
+        <f t="shared" si="21"/>
+        <v>97801</v>
+      </c>
+      <c r="C250" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:37:.1</v>
+      </c>
+      <c r="D250" t="s">
+        <v>25</v>
+      </c>
+      <c r="F250">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G250" t="str">
+        <f t="shared" si="19"/>
+        <v>37</v>
+      </c>
+      <c r="H250" t="str">
+        <f t="shared" si="20"/>
+        <v>.1</v>
+      </c>
+    </row>
+    <row r="251" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B251">
+        <f t="shared" si="21"/>
+        <v>98100</v>
+      </c>
+      <c r="C251" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:38:10</v>
+      </c>
+      <c r="F251">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G251" t="str">
+        <f t="shared" si="19"/>
+        <v>38</v>
+      </c>
+      <c r="H251" t="str">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="252" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B252">
+        <f t="shared" si="21"/>
+        <v>98101</v>
+      </c>
+      <c r="C252" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:38:.1</v>
+      </c>
+      <c r="F252">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G252" t="str">
+        <f t="shared" si="19"/>
+        <v>38</v>
+      </c>
+      <c r="H252" t="str">
+        <f t="shared" si="20"/>
+        <v>.1</v>
+      </c>
+    </row>
+    <row r="253" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B253">
+        <f t="shared" si="21"/>
+        <v>98700</v>
+      </c>
+      <c r="C253" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:38:70</v>
+      </c>
+      <c r="D253" t="s">
+        <v>33</v>
+      </c>
+      <c r="F253">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G253" t="str">
+        <f t="shared" si="19"/>
+        <v>38</v>
+      </c>
+      <c r="H253" t="str">
+        <f t="shared" si="20"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="254" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B254">
+        <f t="shared" si="21"/>
+        <v>98701</v>
+      </c>
+      <c r="C254" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:38:.1</v>
+      </c>
+      <c r="F254">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G254" t="str">
+        <f t="shared" si="19"/>
+        <v>38</v>
+      </c>
+      <c r="H254" t="str">
+        <f t="shared" si="20"/>
+        <v>.1</v>
+      </c>
+    </row>
+    <row r="255" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B255">
+        <f t="shared" si="21"/>
+        <v>99000</v>
+      </c>
+      <c r="C255" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:39:00</v>
+      </c>
+      <c r="F255">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G255" t="str">
+        <f t="shared" si="19"/>
+        <v>39</v>
+      </c>
+      <c r="H255" t="str">
+        <f t="shared" si="20"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="256" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B256">
+        <f t="shared" si="21"/>
+        <v>99001</v>
+      </c>
+      <c r="C256" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:39:.1</v>
+      </c>
+      <c r="F256">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G256" t="str">
+        <f t="shared" si="19"/>
+        <v>39</v>
+      </c>
+      <c r="H256" t="str">
+        <f t="shared" si="20"/>
+        <v>.1</v>
+      </c>
+    </row>
+    <row r="257" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B257">
+        <f t="shared" si="21"/>
+        <v>99300</v>
+      </c>
+      <c r="C257" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>1:39:30</v>
+      </c>
+      <c r="F257">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G257" t="str">
+        <f t="shared" si="19"/>
+        <v>39</v>
+      </c>
+      <c r="H257" t="str">
+        <f t="shared" si="20"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="258" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B258">
+        <f t="shared" si="21"/>
+        <v>99301</v>
+      </c>
+      <c r="C258" s="1" t="str">
+        <f t="shared" ref="C258:C283" si="22">CONCATENATE(F258,":",G258,":",H258)</f>
+        <v>1:39:.1</v>
+      </c>
+      <c r="F258">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="G258" t="str">
+        <f t="shared" si="19"/>
+        <v>39</v>
+      </c>
+      <c r="H258" t="str">
+        <f t="shared" si="20"/>
+        <v>.1</v>
+      </c>
+    </row>
+    <row r="259" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B259">
+        <f t="shared" si="21"/>
+        <v>99900</v>
+      </c>
+      <c r="C259" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>1:39:90</v>
+      </c>
+      <c r="F259">
+        <f t="shared" ref="F259:F322" si="23" xml:space="preserve"> QUOTIENT($B259,60000)</f>
+        <v>1</v>
+      </c>
+      <c r="G259" t="str">
+        <f t="shared" ref="G259:G322" si="24">RIGHT(CONCATENATE("00", QUOTIENT(MOD($B259,60000), 1000)), 2)</f>
+        <v>39</v>
+      </c>
+      <c r="H259" t="str">
+        <f t="shared" ref="H259:H322" si="25">RIGHT(CONCATENATE("00", MOD($B259,1000) / 10), 2)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="260" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B260">
+        <f t="shared" si="21"/>
+        <v>100200</v>
+      </c>
+      <c r="C260" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>1:40:20</v>
+      </c>
+      <c r="F260">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="G260" t="str">
+        <f t="shared" si="24"/>
+        <v>40</v>
+      </c>
+      <c r="H260" t="str">
+        <f t="shared" si="25"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="261" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B261">
+        <f t="shared" si="21"/>
+        <v>100500</v>
+      </c>
+      <c r="C261" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>1:40:50</v>
+      </c>
+      <c r="F261">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="G261" t="str">
+        <f t="shared" si="24"/>
+        <v>40</v>
+      </c>
+      <c r="H261" t="str">
+        <f t="shared" si="25"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="262" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B262">
+        <f t="shared" si="21"/>
+        <v>100800</v>
+      </c>
+      <c r="C262" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>1:40:80</v>
+      </c>
+      <c r="F262">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="G262" t="str">
+        <f t="shared" si="24"/>
+        <v>40</v>
+      </c>
+      <c r="H262" t="str">
+        <f t="shared" si="25"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="263" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C263" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>0:00:00</v>
+      </c>
+      <c r="F263">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G263" t="str">
+        <f t="shared" si="24"/>
+        <v>00</v>
+      </c>
+      <c r="H263" t="str">
+        <f t="shared" si="25"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="264" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C264" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>0:00:00</v>
+      </c>
+      <c r="F264">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G264" t="str">
+        <f t="shared" si="24"/>
+        <v>00</v>
+      </c>
+      <c r="H264" t="str">
+        <f t="shared" si="25"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="265" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C265" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>0:00:00</v>
+      </c>
+      <c r="F265">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G265" t="str">
+        <f t="shared" si="24"/>
+        <v>00</v>
+      </c>
+      <c r="H265" t="str">
+        <f t="shared" si="25"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="266" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C266" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>0:00:00</v>
+      </c>
+      <c r="F266">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G266" t="str">
+        <f t="shared" si="24"/>
+        <v>00</v>
+      </c>
+      <c r="H266" t="str">
+        <f t="shared" si="25"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="267" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C267" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>0:00:00</v>
+      </c>
+      <c r="F267">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G267" t="str">
+        <f t="shared" si="24"/>
+        <v>00</v>
+      </c>
+      <c r="H267" t="str">
+        <f t="shared" si="25"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="268" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C268" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>0:00:00</v>
+      </c>
+      <c r="F268">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G268" t="str">
+        <f t="shared" si="24"/>
+        <v>00</v>
+      </c>
+      <c r="H268" t="str">
+        <f t="shared" si="25"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="269" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C269" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>0:00:00</v>
+      </c>
+      <c r="F269">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G269" t="str">
+        <f t="shared" si="24"/>
+        <v>00</v>
+      </c>
+      <c r="H269" t="str">
+        <f t="shared" si="25"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="270" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C270" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>0:00:00</v>
+      </c>
+      <c r="F270">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G270" t="str">
+        <f t="shared" si="24"/>
+        <v>00</v>
+      </c>
+      <c r="H270" t="str">
+        <f t="shared" si="25"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="271" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C271" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>0:00:00</v>
+      </c>
+      <c r="F271">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G271" t="str">
+        <f t="shared" si="24"/>
+        <v>00</v>
+      </c>
+      <c r="H271" t="str">
+        <f t="shared" si="25"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="272" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B272">
+        <v>102300</v>
+      </c>
+      <c r="C272" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>1:42:30</v>
+      </c>
+      <c r="D272" t="s">
+        <v>42</v>
+      </c>
+      <c r="F272">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="G272" t="str">
+        <f t="shared" si="24"/>
+        <v>42</v>
+      </c>
+      <c r="H272" t="str">
+        <f t="shared" si="25"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="273" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B273">
+        <v>102301</v>
+      </c>
+      <c r="C273" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>1:42:.1</v>
+      </c>
+      <c r="F273">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="G273" t="str">
+        <f t="shared" si="24"/>
+        <v>42</v>
+      </c>
+      <c r="H273" t="str">
+        <f t="shared" si="25"/>
+        <v>.1</v>
+      </c>
+    </row>
+    <row r="274" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B274">
+        <v>103800</v>
+      </c>
+      <c r="C274" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>1:43:80</v>
+      </c>
+      <c r="F274">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="G274" t="str">
+        <f t="shared" si="24"/>
+        <v>43</v>
+      </c>
+      <c r="H274" t="str">
+        <f t="shared" si="25"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="275" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B275">
+        <f>B274+300</f>
+        <v>104100</v>
+      </c>
+      <c r="C275" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>1:44:10</v>
+      </c>
+      <c r="F275">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="G275" t="str">
+        <f t="shared" si="24"/>
+        <v>44</v>
+      </c>
+      <c r="H275" t="str">
+        <f t="shared" si="25"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="276" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B276">
+        <f t="shared" ref="B276:B281" si="26">B275+300</f>
+        <v>104400</v>
+      </c>
+      <c r="C276" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>1:44:40</v>
+      </c>
+      <c r="F276">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="G276" t="str">
+        <f t="shared" si="24"/>
+        <v>44</v>
+      </c>
+      <c r="H276" t="str">
+        <f t="shared" si="25"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="277" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B277">
+        <f t="shared" si="26"/>
+        <v>104700</v>
+      </c>
+      <c r="C277" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>1:44:70</v>
+      </c>
+      <c r="F277">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="G277" t="str">
+        <f t="shared" si="24"/>
+        <v>44</v>
+      </c>
+      <c r="H277" t="str">
+        <f t="shared" si="25"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="278" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B278">
+        <v>106200</v>
+      </c>
+      <c r="C278" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>1:46:20</v>
+      </c>
+      <c r="F278">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="G278" t="str">
+        <f t="shared" si="24"/>
+        <v>46</v>
+      </c>
+      <c r="H278" t="str">
+        <f t="shared" si="25"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="279" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B279">
+        <f>B278+300</f>
+        <v>106500</v>
+      </c>
+      <c r="C279" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>1:46:50</v>
+      </c>
+      <c r="F279">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="G279" t="str">
+        <f t="shared" si="24"/>
+        <v>46</v>
+      </c>
+      <c r="H279" t="str">
+        <f t="shared" si="25"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="280" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B280">
+        <f t="shared" ref="B280:B292" si="27">B279+300</f>
+        <v>106800</v>
+      </c>
+      <c r="C280" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>1:46:80</v>
+      </c>
+      <c r="F280">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="G280" t="str">
+        <f t="shared" si="24"/>
+        <v>46</v>
+      </c>
+      <c r="H280" t="str">
+        <f t="shared" si="25"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="281" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B281">
+        <f t="shared" si="27"/>
+        <v>107100</v>
+      </c>
+      <c r="C281" s="1" t="str">
+        <f>CONCATENATE(F281,":",G281,":",H281)</f>
+        <v>1:47:10</v>
+      </c>
+      <c r="F281">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="G281" t="str">
+        <f t="shared" si="24"/>
+        <v>47</v>
+      </c>
+      <c r="H281" t="str">
+        <f t="shared" si="25"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="282" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B282">
+        <v>108600</v>
+      </c>
+      <c r="C282" s="1" t="str">
+        <f t="shared" ref="C282:C283" si="28">CONCATENATE(F282,":",G282,":",H282)</f>
+        <v>1:48:60</v>
+      </c>
+      <c r="F282">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="G282" t="str">
+        <f t="shared" si="24"/>
+        <v>48</v>
+      </c>
+      <c r="H282" t="str">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="283" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B283">
+        <f t="shared" si="27"/>
+        <v>108900</v>
+      </c>
+      <c r="C283" s="1" t="str">
+        <f t="shared" si="28"/>
+        <v>1:48:90</v>
+      </c>
+      <c r="F283">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="G283" t="str">
+        <f t="shared" si="24"/>
+        <v>48</v>
+      </c>
+      <c r="H283" t="str">
+        <f t="shared" si="25"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="284" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B284">
+        <f t="shared" si="27"/>
+        <v>109200</v>
+      </c>
+      <c r="C284" s="1" t="str">
+        <f t="shared" ref="C284:C321" si="29">CONCATENATE(F284,":",G284,":",H284)</f>
+        <v>1:49:20</v>
+      </c>
+      <c r="F284">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="G284" t="str">
+        <f t="shared" si="24"/>
+        <v>49</v>
+      </c>
+      <c r="H284" t="str">
+        <f t="shared" si="25"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="285" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B285">
+        <f t="shared" si="27"/>
+        <v>109500</v>
+      </c>
+      <c r="C285" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>1:49:50</v>
+      </c>
+      <c r="F285">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="G285" t="str">
+        <f t="shared" si="24"/>
+        <v>49</v>
+      </c>
+      <c r="H285" t="str">
+        <f t="shared" si="25"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="286" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B286">
+        <f>B285+600</f>
+        <v>110100</v>
+      </c>
+      <c r="C286" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>1:50:10</v>
+      </c>
+      <c r="F286">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="G286" t="str">
+        <f t="shared" si="24"/>
+        <v>50</v>
+      </c>
+      <c r="H286" t="str">
+        <f t="shared" si="25"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="287" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B287">
+        <f t="shared" si="27"/>
+        <v>110400</v>
+      </c>
+      <c r="C287" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>1:50:40</v>
+      </c>
+      <c r="F287">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="G287" t="str">
+        <f t="shared" si="24"/>
+        <v>50</v>
+      </c>
+      <c r="H287" t="str">
+        <f t="shared" si="25"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="288" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B288">
+        <f t="shared" si="27"/>
+        <v>110700</v>
+      </c>
+      <c r="C288" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>1:50:70</v>
+      </c>
+      <c r="F288">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="G288" t="str">
+        <f t="shared" si="24"/>
+        <v>50</v>
+      </c>
+      <c r="H288" t="str">
+        <f t="shared" si="25"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="289" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B289">
+        <f t="shared" si="27"/>
+        <v>111000</v>
+      </c>
+      <c r="C289" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>1:51:00</v>
+      </c>
+      <c r="F289">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="G289" t="str">
+        <f t="shared" si="24"/>
+        <v>51</v>
+      </c>
+      <c r="H289" t="str">
+        <f t="shared" si="25"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="290" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B290">
+        <f t="shared" si="27"/>
+        <v>111300</v>
+      </c>
+      <c r="C290" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>1:51:30</v>
+      </c>
+      <c r="F290">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="G290" t="str">
+        <f t="shared" si="24"/>
+        <v>51</v>
+      </c>
+      <c r="H290" t="str">
+        <f t="shared" si="25"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="291" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B291">
+        <f t="shared" si="27"/>
+        <v>111600</v>
+      </c>
+      <c r="C291" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>1:51:60</v>
+      </c>
+      <c r="F291">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="G291" t="str">
+        <f t="shared" si="24"/>
+        <v>51</v>
+      </c>
+      <c r="H291" t="str">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="292" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B292">
+        <f>9600+B272</f>
+        <v>111900</v>
+      </c>
+      <c r="C292" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>1:51:90</v>
+      </c>
+      <c r="D292" t="s">
+        <v>47</v>
+      </c>
+      <c r="E292">
+        <f>111900-B272</f>
+        <v>9600</v>
+      </c>
+      <c r="F292">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="G292" t="str">
+        <f t="shared" si="24"/>
+        <v>51</v>
+      </c>
+      <c r="H292" t="str">
+        <f t="shared" si="25"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="293" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B293">
+        <f t="shared" ref="B293:B353" si="30">9600+B273</f>
+        <v>111901</v>
+      </c>
+      <c r="C293" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>1:51:.1</v>
+      </c>
+      <c r="F293">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="G293" t="str">
+        <f t="shared" si="24"/>
+        <v>51</v>
+      </c>
+      <c r="H293" t="str">
+        <f t="shared" si="25"/>
+        <v>.1</v>
+      </c>
+    </row>
+    <row r="294" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B294">
+        <f t="shared" si="30"/>
+        <v>113400</v>
+      </c>
+      <c r="C294" s="1" t="str">
+        <f t="shared" ref="C294:C357" si="31">CONCATENATE(F294,":",G294,":",H294)</f>
+        <v>1:53:40</v>
+      </c>
+      <c r="F294">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="G294" t="str">
+        <f t="shared" si="24"/>
+        <v>53</v>
+      </c>
+      <c r="H294" t="str">
+        <f t="shared" si="25"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="295" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B295">
+        <f t="shared" si="30"/>
+        <v>113700</v>
+      </c>
+      <c r="C295" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>1:53:70</v>
+      </c>
+      <c r="F295">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="G295" t="str">
+        <f t="shared" si="24"/>
+        <v>53</v>
+      </c>
+      <c r="H295" t="str">
+        <f t="shared" si="25"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="296" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B296">
+        <f t="shared" si="30"/>
+        <v>114000</v>
+      </c>
+      <c r="C296" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>1:54:00</v>
+      </c>
+      <c r="F296">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="G296" t="str">
+        <f t="shared" si="24"/>
+        <v>54</v>
+      </c>
+      <c r="H296" t="str">
+        <f t="shared" si="25"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="297" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B297">
+        <f t="shared" si="30"/>
+        <v>114300</v>
+      </c>
+      <c r="C297" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>1:54:30</v>
+      </c>
+      <c r="F297">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="G297" t="str">
+        <f t="shared" si="24"/>
+        <v>54</v>
+      </c>
+      <c r="H297" t="str">
+        <f t="shared" si="25"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="298" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B298">
+        <f t="shared" si="30"/>
+        <v>115800</v>
+      </c>
+      <c r="C298" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>1:55:80</v>
+      </c>
+      <c r="F298">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="G298" t="str">
+        <f t="shared" si="24"/>
+        <v>55</v>
+      </c>
+      <c r="H298" t="str">
+        <f t="shared" si="25"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="299" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B299">
+        <f t="shared" si="30"/>
+        <v>116100</v>
+      </c>
+      <c r="C299" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>1:56:10</v>
+      </c>
+      <c r="F299">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="G299" t="str">
+        <f t="shared" si="24"/>
+        <v>56</v>
+      </c>
+      <c r="H299" t="str">
+        <f t="shared" si="25"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="300" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B300">
+        <f t="shared" si="30"/>
+        <v>116400</v>
+      </c>
+      <c r="C300" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>1:56:40</v>
+      </c>
+      <c r="F300">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="G300" t="str">
+        <f t="shared" si="24"/>
+        <v>56</v>
+      </c>
+      <c r="H300" t="str">
+        <f t="shared" si="25"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="301" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B301">
+        <f t="shared" si="30"/>
+        <v>116700</v>
+      </c>
+      <c r="C301" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>1:56:70</v>
+      </c>
+      <c r="F301">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="G301" t="str">
+        <f t="shared" si="24"/>
+        <v>56</v>
+      </c>
+      <c r="H301" t="str">
+        <f t="shared" si="25"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="302" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B302">
+        <f t="shared" si="30"/>
+        <v>118200</v>
+      </c>
+      <c r="C302" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>1:58:20</v>
+      </c>
+      <c r="F302">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="G302" t="str">
+        <f t="shared" si="24"/>
+        <v>58</v>
+      </c>
+      <c r="H302" t="str">
+        <f t="shared" si="25"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="303" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B303">
+        <f t="shared" si="30"/>
+        <v>118500</v>
+      </c>
+      <c r="C303" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>1:58:50</v>
+      </c>
+      <c r="F303">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="G303" t="str">
+        <f t="shared" si="24"/>
+        <v>58</v>
+      </c>
+      <c r="H303" t="str">
+        <f t="shared" si="25"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="304" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B304">
+        <f t="shared" si="30"/>
+        <v>118800</v>
+      </c>
+      <c r="C304" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>1:58:80</v>
+      </c>
+      <c r="F304">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="G304" t="str">
+        <f t="shared" si="24"/>
+        <v>58</v>
+      </c>
+      <c r="H304" t="str">
+        <f t="shared" si="25"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="305" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B305">
+        <f t="shared" si="30"/>
+        <v>119100</v>
+      </c>
+      <c r="C305" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>1:59:10</v>
+      </c>
+      <c r="F305">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="G305" t="str">
+        <f t="shared" si="24"/>
+        <v>59</v>
+      </c>
+      <c r="H305" t="str">
+        <f t="shared" si="25"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="306" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B306">
+        <f t="shared" si="30"/>
+        <v>119700</v>
+      </c>
+      <c r="C306" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>1:59:70</v>
+      </c>
+      <c r="F306">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="G306" t="str">
+        <f t="shared" si="24"/>
+        <v>59</v>
+      </c>
+      <c r="H306" t="str">
+        <f t="shared" si="25"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="307" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B307">
+        <f t="shared" si="30"/>
+        <v>120000</v>
+      </c>
+      <c r="C307" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>2:00:00</v>
+      </c>
+      <c r="F307">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="G307" t="str">
+        <f t="shared" si="24"/>
+        <v>00</v>
+      </c>
+      <c r="H307" t="str">
+        <f t="shared" si="25"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="308" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B308">
+        <f t="shared" si="30"/>
+        <v>120300</v>
+      </c>
+      <c r="C308" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>2:00:30</v>
+      </c>
+      <c r="F308">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="G308" t="str">
+        <f t="shared" si="24"/>
+        <v>00</v>
+      </c>
+      <c r="H308" t="str">
+        <f t="shared" si="25"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="309" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B309">
+        <f t="shared" si="30"/>
+        <v>120600</v>
+      </c>
+      <c r="C309" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>2:00:60</v>
+      </c>
+      <c r="F309">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="G309" t="str">
+        <f t="shared" si="24"/>
+        <v>00</v>
+      </c>
+      <c r="H309" t="str">
+        <f t="shared" si="25"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="310" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B310">
+        <f t="shared" si="30"/>
+        <v>120900</v>
+      </c>
+      <c r="C310" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>2:00:90</v>
+      </c>
+      <c r="F310">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="G310" t="str">
+        <f t="shared" si="24"/>
+        <v>00</v>
+      </c>
+      <c r="H310" t="str">
+        <f t="shared" si="25"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="311" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B311">
+        <f t="shared" si="30"/>
+        <v>121200</v>
+      </c>
+      <c r="C311" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>2:01:20</v>
+      </c>
+      <c r="F311">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="G311" t="str">
+        <f t="shared" si="24"/>
+        <v>01</v>
+      </c>
+      <c r="H311" t="str">
+        <f t="shared" si="25"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="312" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B312">
+        <f t="shared" si="30"/>
+        <v>121500</v>
+      </c>
+      <c r="C312" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>2:01:50</v>
+      </c>
+      <c r="D312" t="s">
+        <v>48</v>
+      </c>
+      <c r="F312">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="G312" t="str">
+        <f t="shared" si="24"/>
+        <v>01</v>
+      </c>
+      <c r="H312" t="str">
+        <f t="shared" si="25"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="313" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C313" s="1"/>
+    </row>
+    <row r="314" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C314" s="1"/>
+    </row>
+    <row r="315" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C315" s="1"/>
+    </row>
+    <row r="316" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C316" s="1"/>
+    </row>
+    <row r="317" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C317" s="1"/>
+    </row>
+    <row r="318" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C318" s="1"/>
+    </row>
+    <row r="319" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C319" s="1"/>
+    </row>
+    <row r="320" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C320" s="1"/>
+    </row>
+    <row r="321" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C321" s="1"/>
+    </row>
+    <row r="322" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C322" s="1"/>
+    </row>
+    <row r="323" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C323" s="1"/>
+    </row>
+    <row r="324" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C324" s="1"/>
+    </row>
+    <row r="325" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C325" s="1"/>
+    </row>
+    <row r="326" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C326" s="1"/>
+    </row>
+    <row r="327" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C327" s="1"/>
+    </row>
+    <row r="328" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C328" s="1"/>
+    </row>
+    <row r="329" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C329" s="1"/>
+    </row>
+    <row r="330" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C330" s="1"/>
+    </row>
+    <row r="331" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C331" s="1"/>
+    </row>
+    <row r="332" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C332" s="1"/>
+    </row>
+    <row r="333" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C333" s="1"/>
+    </row>
+    <row r="334" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C334" s="1"/>
+    </row>
+    <row r="335" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C335" s="1"/>
+    </row>
+    <row r="336" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C336" s="1"/>
+    </row>
+    <row r="337" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C337" s="1"/>
+    </row>
+    <row r="338" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C338" s="1"/>
+    </row>
+    <row r="339" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C339" s="1"/>
+    </row>
+    <row r="340" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C340" s="1"/>
+    </row>
+    <row r="341" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C341" s="1"/>
+    </row>
+    <row r="342" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C342" s="1"/>
+    </row>
+    <row r="343" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C343" s="1"/>
+    </row>
+    <row r="344" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C344" s="1"/>
+    </row>
+    <row r="345" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C345" s="1"/>
+    </row>
+    <row r="346" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C346" s="1"/>
+    </row>
+    <row r="347" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C347" s="1"/>
+    </row>
+    <row r="348" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C348" s="1"/>
+    </row>
+    <row r="349" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C349" s="1"/>
+    </row>
+    <row r="350" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C350" s="1"/>
+    </row>
+    <row r="351" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C351" s="1"/>
+    </row>
+    <row r="352" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C352" s="1"/>
+    </row>
+    <row r="353" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C353" s="1"/>
+    </row>
+    <row r="354" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C354" s="1"/>
+    </row>
+    <row r="355" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C355" s="1"/>
+    </row>
+    <row r="356" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C356" s="1"/>
+    </row>
+    <row r="357" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C357" s="1"/>
+    </row>
+    <row r="358" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C358" s="1"/>
+    </row>
+    <row r="359" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C359" s="1"/>
+    </row>
+    <row r="360" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C360" s="1"/>
+    </row>
+    <row r="361" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C361" s="1"/>
+    </row>
+    <row r="362" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C362" s="1"/>
+    </row>
+    <row r="363" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C363" s="1"/>
+    </row>
+    <row r="364" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C364" s="1"/>
+    </row>
+    <row r="365" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C365" s="1"/>
+    </row>
+    <row r="366" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C366" s="1"/>
+    </row>
+    <row r="367" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C367" s="1"/>
+    </row>
+    <row r="368" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C368" s="1"/>
+    </row>
+    <row r="369" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C369" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B127A10-E90C-4366-A3BC-6BCBFDD58C3F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
